--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.227490215450952</v>
+        <v>3.777048626199441</v>
       </c>
       <c r="C2">
-        <v>38.09603014391673</v>
+        <v>64.59761633098924</v>
       </c>
       <c r="D2">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E2">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F2">
-        <v>2.122241998015796</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G2">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H2">
-        <v>0.455750476063412</v>
+        <v>0.7727942854988289</v>
       </c>
       <c r="I2">
-        <v>12.84482704373898</v>
+        <v>21.78035890025306</v>
       </c>
       <c r="J2">
-        <v>3.357489869674092</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K2">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L2">
-        <v>10.17534259213721</v>
+        <v>17.25384178666745</v>
       </c>
       <c r="M2">
-        <v>61.97599872976527</v>
+        <v>105.0897369765585</v>
       </c>
       <c r="N2">
-        <v>0.06394117127622788</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O2">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P2">
-        <v>161.5157348038763</v>
+        <v>273.8745068413555</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.672589066746259</v>
+        <v>4.531781461004525</v>
       </c>
       <c r="C3">
-        <v>45.70840892715457</v>
+        <v>77.50556296343606</v>
       </c>
       <c r="D3">
-        <v>0.01382423725423598</v>
+        <v>0.02344109795283492</v>
       </c>
       <c r="E3">
-        <v>5.000245007268526</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="F3">
-        <v>3.987242541726645</v>
+        <v>6.76097648379736</v>
       </c>
       <c r="G3">
-        <v>19.15466062567163</v>
+        <v>32.47964193048667</v>
       </c>
       <c r="H3">
-        <v>0.2000855748571077</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I3">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J3">
-        <v>2.726895325623628</v>
+        <v>4.623865986927019</v>
       </c>
       <c r="K3">
-        <v>13.73364881592972</v>
+        <v>23.28749147048952</v>
       </c>
       <c r="L3">
-        <v>3.335251182978309</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M3">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N3">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O3">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P3">
-        <v>124.9935054526701</v>
+        <v>211.945509245832</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.8721849641881</v>
+        <v>4.87022667840591</v>
       </c>
       <c r="C4">
-        <v>49.122031699907</v>
+        <v>83.29387983897271</v>
       </c>
       <c r="D4">
-        <v>0.01434590658458451</v>
+        <v>0.02432566768690417</v>
       </c>
       <c r="E4">
-        <v>5.188933498108848</v>
+        <v>8.798626366358482</v>
       </c>
       <c r="F4">
-        <v>3.665690723845465</v>
+        <v>6.215736444781442</v>
       </c>
       <c r="G4">
-        <v>17.60992993005295</v>
+        <v>29.86031596835065</v>
       </c>
       <c r="H4">
-        <v>0.1445062485079111</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I4">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J4">
-        <v>2.914369379260252</v>
+        <v>4.941756773528253</v>
       </c>
       <c r="K4">
-        <v>14.67783717202488</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="L4">
-        <v>3.109132458708593</v>
+        <v>5.272007212592832</v>
       </c>
       <c r="M4">
-        <v>18.93711072298384</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="N4">
-        <v>0.138539204431827</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O4">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P4">
-        <v>124.6568503437673</v>
+        <v>211.3746592785619</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.824281948802058</v>
+        <v>4.788999826229573</v>
       </c>
       <c r="C5">
-        <v>48.30276223444639</v>
+        <v>81.9046837888439</v>
       </c>
       <c r="D5">
-        <v>0.01278089859353892</v>
+        <v>0.02167195848469644</v>
       </c>
       <c r="E5">
-        <v>4.622868025587884</v>
+        <v>7.838776217301193</v>
       </c>
       <c r="F5">
-        <v>3.279828542388048</v>
+        <v>5.561448397962342</v>
       </c>
       <c r="G5">
-        <v>15.75625309531054</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="H5">
-        <v>0.211201440126947</v>
+        <v>0.3581241810848232</v>
       </c>
       <c r="I5">
-        <v>5.95248082514733</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="J5">
-        <v>3.442705348599829</v>
+        <v>5.837630808495363</v>
       </c>
       <c r="K5">
-        <v>17.33873163011127</v>
+        <v>29.40045798149302</v>
       </c>
       <c r="L5">
-        <v>3.22219182084345</v>
+        <v>5.463716565778026</v>
       </c>
       <c r="M5">
-        <v>19.62573293109233</v>
+        <v>33.27841670924352</v>
       </c>
       <c r="N5">
-        <v>0.138539204431827</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O5">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P5">
-        <v>126.9198463423858</v>
+        <v>215.2119133631759</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.916096061625306</v>
+        <v>4.944684626234213</v>
       </c>
       <c r="C6">
-        <v>49.8730287099125</v>
+        <v>84.56730955159078</v>
       </c>
       <c r="D6">
-        <v>0.01382423725423598</v>
+        <v>0.02344109795283492</v>
       </c>
       <c r="E6">
-        <v>5.000245007268526</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="F6">
-        <v>4.11586326887912</v>
+        <v>6.979072499403722</v>
       </c>
       <c r="G6">
-        <v>19.7725529039191</v>
+        <v>33.52737231534108</v>
       </c>
       <c r="H6">
-        <v>0.211201440126947</v>
+        <v>0.3581241810848232</v>
       </c>
       <c r="I6">
-        <v>5.95248082514733</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="J6">
-        <v>2.99958485818599</v>
+        <v>5.086252585619724</v>
       </c>
       <c r="K6">
-        <v>15.10701369752269</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="L6">
-        <v>2.600365329101733</v>
+        <v>4.409315123259461</v>
       </c>
       <c r="M6">
-        <v>15.83831078649557</v>
+        <v>26.85626611623161</v>
       </c>
       <c r="N6">
-        <v>0.0959117569143418</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O6">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P6">
-        <v>126.0122785417487</v>
+        <v>213.6729940490521</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.985954625729951</v>
+        <v>5.063140452324699</v>
       </c>
       <c r="C7">
-        <v>51.06779668037586</v>
+        <v>86.59322045802858</v>
       </c>
       <c r="D7">
-        <v>0.01252006392836466</v>
+        <v>0.02122967361766182</v>
       </c>
       <c r="E7">
-        <v>4.528523780167722</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="F7">
-        <v>4.501725450336537</v>
+        <v>7.63336054622282</v>
       </c>
       <c r="G7">
-        <v>21.62622973866152</v>
+        <v>36.6705634699043</v>
       </c>
       <c r="H7">
-        <v>0.3223600928253402</v>
+        <v>0.5466105921820986</v>
       </c>
       <c r="I7">
-        <v>9.085365469961717</v>
+        <v>15.40561970993508</v>
       </c>
       <c r="J7">
-        <v>2.573507463557298</v>
+        <v>4.363773525162375</v>
       </c>
       <c r="K7">
-        <v>12.96113107003367</v>
+        <v>21.97757007527449</v>
       </c>
       <c r="L7">
-        <v>2.20465756162973</v>
+        <v>3.73833238711128</v>
       </c>
       <c r="M7">
-        <v>13.42813305811581</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="N7">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O7">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P7">
-        <v>127.8050117029163</v>
+        <v>216.7128459310319</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.293332307790386</v>
+        <v>5.584346087122829</v>
       </c>
       <c r="C8">
-        <v>56.32477575041457</v>
+        <v>95.50722844635507</v>
       </c>
       <c r="D8">
-        <v>0.01356340258906172</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E8">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F8">
-        <v>3.922932178150409</v>
+        <v>6.651928475994173</v>
       </c>
       <c r="G8">
-        <v>18.84571448654789</v>
+        <v>31.95577673805947</v>
       </c>
       <c r="H8">
-        <v>0.3890552844443759</v>
+        <v>0.6597024388404639</v>
       </c>
       <c r="I8">
-        <v>10.96509625685035</v>
+        <v>18.59298930509407</v>
       </c>
       <c r="J8">
-        <v>2.539421271987004</v>
+        <v>4.305975200325787</v>
       </c>
       <c r="K8">
-        <v>12.78946045983455</v>
+        <v>21.68647643189336</v>
       </c>
       <c r="L8">
-        <v>1.413242026685725</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M8">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N8">
-        <v>0.2557646851049115</v>
+        <v>0.4336879443083282</v>
       </c>
       <c r="O8">
-        <v>4.042132425054124</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="P8">
-        <v>128.308168898658</v>
+        <v>217.5660255238114</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.656596841134537</v>
+        <v>6.200316382793344</v>
       </c>
       <c r="C9">
-        <v>62.53756919682392</v>
+        <v>106.0419651598318</v>
       </c>
       <c r="D9">
-        <v>0.008868378615924969</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E9">
-        <v>3.20770434428547</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F9">
-        <v>3.022587088083101</v>
+        <v>5.125256366749608</v>
       </c>
       <c r="G9">
-        <v>14.52046853881559</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="H9">
-        <v>0.6002567245713231</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I9">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J9">
-        <v>2.471248888846412</v>
+        <v>4.190378550652613</v>
       </c>
       <c r="K9">
-        <v>12.44611923943631</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="L9">
-        <v>1.187123302416008</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M9">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N9">
-        <v>0.06394117127622788</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O9">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P9">
-        <v>128.8811270877053</v>
+        <v>218.5375633226307</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.550811015490362</v>
+        <v>6.020940417570611</v>
       </c>
       <c r="C10">
-        <v>60.7283491272651</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="D10">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E10">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F10">
-        <v>2.508104179473213</v>
+        <v>4.252872304324142</v>
       </c>
       <c r="G10">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H10">
-        <v>0.8003422994284307</v>
+        <v>1.357102159900383</v>
       </c>
       <c r="I10">
-        <v>22.55676944266357</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="J10">
-        <v>1.329361471241518</v>
+        <v>2.254134668626922</v>
       </c>
       <c r="K10">
-        <v>6.695153797765736</v>
+        <v>11.35265209186364</v>
       </c>
       <c r="L10">
-        <v>1.017534259213722</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M10">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N10">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O10">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P10">
-        <v>119.6933156994779</v>
+        <v>202.9582309686799</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.502932553920692</v>
+        <v>4.244103026213349</v>
       </c>
       <c r="C11">
-        <v>42.80682957031505</v>
+        <v>72.58549361922985</v>
       </c>
       <c r="D11">
-        <v>0.004955858638311011</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E11">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F11">
-        <v>2.186552361592032</v>
+        <v>3.707632265308228</v>
       </c>
       <c r="G11">
-        <v>10.50416873020702</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="H11">
-        <v>0.6224884551110017</v>
+        <v>1.055523902144742</v>
       </c>
       <c r="I11">
-        <v>17.54415401096056</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="J11">
-        <v>0.681723831405907</v>
+        <v>1.155966496731755</v>
       </c>
       <c r="K11">
-        <v>3.43341220398243</v>
+        <v>5.82187286762238</v>
       </c>
       <c r="L11">
-        <v>0.6218264917417186</v>
+        <v>1.054401442518566</v>
       </c>
       <c r="M11">
-        <v>3.787422144596765</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="N11">
-        <v>0.03197058563811394</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O11">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P11">
-        <v>87.02624401422442</v>
+        <v>147.5662398502066</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.121704389806775</v>
+        <v>3.597672660976706</v>
       </c>
       <c r="C12">
-        <v>36.28681007435797</v>
+        <v>61.5298083869548</v>
       </c>
       <c r="D12">
-        <v>0.01043338660697055</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E12">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F12">
-        <v>1.479138362253433</v>
+        <v>2.508104179473213</v>
       </c>
       <c r="G12">
-        <v>7.105761199845928</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="H12">
-        <v>0.5224456676824479</v>
+        <v>0.8858861321571943</v>
       </c>
       <c r="I12">
-        <v>14.72455783062761</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="J12">
-        <v>0.6476376398356115</v>
+        <v>1.098168171895167</v>
       </c>
       <c r="K12">
-        <v>3.261741593783307</v>
+        <v>5.530779224241261</v>
       </c>
       <c r="L12">
-        <v>0.9610045781462927</v>
+        <v>1.629529502074148</v>
       </c>
       <c r="M12">
-        <v>5.853288768922274</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="N12">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O12">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P12">
-        <v>76.92737235493168</v>
+        <v>130.442066167058</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.702553005178909</v>
+        <v>2.886937704433802</v>
       </c>
       <c r="C13">
-        <v>29.11820225157792</v>
+        <v>49.37434294832779</v>
       </c>
       <c r="D13">
-        <v>0.007825039955227913</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E13">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F13">
-        <v>1.157586544372252</v>
+        <v>1.962864140457297</v>
       </c>
       <c r="G13">
-        <v>5.561030504227247</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="H13">
-        <v>0.4446346107935726</v>
+        <v>0.7539456443891015</v>
       </c>
       <c r="I13">
-        <v>12.53153857925754</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="J13">
-        <v>0.3749481072732488</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K13">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L13">
-        <v>0.6218264917417186</v>
+        <v>1.054401442518566</v>
       </c>
       <c r="M13">
-        <v>3.787422144596765</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="N13">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O13">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P13">
-        <v>60.38442944628282</v>
+        <v>102.3909890610882</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.291385456448715</v>
+        <v>2.189740556586952</v>
       </c>
       <c r="C14">
-        <v>22.086139339708</v>
+        <v>37.45041018472227</v>
       </c>
       <c r="D14">
-        <v>0.008868378615924969</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E14">
-        <v>3.20770434428547</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F14">
-        <v>0.9646554536435432</v>
+        <v>1.635720117047748</v>
       </c>
       <c r="G14">
-        <v>4.63419208685604</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="H14">
-        <v>0.1445062485079111</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I14">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J14">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K14">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L14">
-        <v>0.395707767472003</v>
+        <v>0.6709827361481787</v>
       </c>
       <c r="M14">
-        <v>2.410177728379761</v>
+        <v>4.08682310464394</v>
       </c>
       <c r="N14">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O14">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P14">
-        <v>40.83546350081863</v>
+        <v>69.24274245790984</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.8083633846394581</v>
+        <v>1.370703130475603</v>
       </c>
       <c r="C15">
-        <v>13.8251722296472</v>
+        <v>23.44268334592352</v>
       </c>
       <c r="D15">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E15">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F15">
-        <v>0.7717243629148347</v>
+        <v>1.308576093638198</v>
       </c>
       <c r="G15">
-        <v>3.70735366948483</v>
+        <v>6.286382309126453</v>
       </c>
       <c r="H15">
-        <v>0.1000427874285538</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I15">
-        <v>2.819596180332947</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J15">
-        <v>0.3919912030583965</v>
+        <v>0.6646807356207592</v>
       </c>
       <c r="K15">
-        <v>1.974212017289896</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="L15">
-        <v>0.6783561728091481</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M15">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N15">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O15">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P15">
-        <v>31.46893606439028</v>
+        <v>53.36036984831396</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.6067715282231985</v>
+        <v>1.028873460900206</v>
       </c>
       <c r="C16">
-        <v>10.37741322916729</v>
+        <v>17.59648330163148</v>
       </c>
       <c r="D16">
-        <v>0.008085874620402177</v>
+        <v>0.01371083087807326</v>
       </c>
       <c r="E16">
-        <v>2.924671608024987</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="F16">
-        <v>0.3858621814574174</v>
+        <v>0.6542880468190988</v>
       </c>
       <c r="G16">
-        <v>1.853676834742415</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="H16">
-        <v>0.03334759580951795</v>
+        <v>0.05654592332918261</v>
       </c>
       <c r="I16">
-        <v>0.9398653934443156</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="J16">
-        <v>0.1533878620663291</v>
+        <v>0.2600924617646449</v>
       </c>
       <c r="K16">
-        <v>0.7725177458960465</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="L16">
-        <v>0.4522374485394318</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M16">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N16">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O16">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P16">
-        <v>21.44140518068199</v>
+        <v>36.3571653063738</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3872160410371726</v>
+        <v>0.6565837217586841</v>
       </c>
       <c r="C17">
-        <v>6.62242817913965</v>
+        <v>11.22933473854114</v>
       </c>
       <c r="D17">
-        <v>0.009129213281099233</v>
+        <v>0.01547997034621174</v>
       </c>
       <c r="E17">
-        <v>3.302048589705631</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="H17">
-        <v>0.01111586526983932</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I17">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J17">
-        <v>0.3238188199178058</v>
+        <v>0.5490840859475837</v>
       </c>
       <c r="K17">
-        <v>1.630870796891654</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="L17">
-        <v>0.4522374485394318</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M17">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N17">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O17">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P17">
-        <v>15.98572129695436</v>
+        <v>27.10622306874869</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2315312410325361</v>
+        <v>0.3925964521856046</v>
       </c>
       <c r="C18">
-        <v>3.959802416392779</v>
+        <v>6.714447575622538</v>
       </c>
       <c r="D18">
-        <v>0.007564205290053652</v>
+        <v>0.01282626114400402</v>
       </c>
       <c r="E18">
-        <v>2.735983117184665</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="F18">
-        <v>0.3858621814574174</v>
+        <v>0.6542880468190988</v>
       </c>
       <c r="G18">
-        <v>1.853676834742415</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="J18">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K18">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L18">
-        <v>0.791415534944006</v>
+        <v>1.341965472296357</v>
       </c>
       <c r="M18">
-        <v>4.820355456759522</v>
+        <v>8.173646209287881</v>
       </c>
       <c r="P18">
-        <v>16.22648860018931</v>
+        <v>27.51448066988622</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2874180923162517</v>
+        <v>0.4873611130579926</v>
       </c>
       <c r="C19">
-        <v>4.91561679276345</v>
+        <v>8.335176300772808</v>
       </c>
       <c r="D19">
-        <v>0.004955858638311011</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E19">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F19">
-        <v>0.3215518178811813</v>
+        <v>0.5452400390159158</v>
       </c>
       <c r="G19">
-        <v>1.544730695618679</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="H19">
-        <v>0.04446346107935727</v>
+        <v>0.07539456443891014</v>
       </c>
       <c r="I19">
-        <v>1.253153857925754</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="J19">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K19">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L19">
-        <v>0.9610045781462927</v>
+        <v>1.629529502074148</v>
       </c>
       <c r="M19">
-        <v>5.853288768922274</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="P19">
-        <v>18.41902219866053</v>
+        <v>31.23225503251133</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.475038235911583</v>
+        <v>0.8054996174152924</v>
       </c>
       <c r="C20">
-        <v>8.124422199150699</v>
+        <v>13.77619416377727</v>
       </c>
       <c r="D20">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E20">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F20">
-        <v>0.6431036357623625</v>
+        <v>1.090480078031832</v>
       </c>
       <c r="G20">
-        <v>3.089461391237358</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="H20">
-        <v>0.02223173053967863</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I20">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J20">
-        <v>0.4090342988435441</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K20">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L20">
-        <v>1.187123302416008</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M20">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="P20">
-        <v>25.47585859180354</v>
+        <v>43.19819500349297</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.075821887211526</v>
+        <v>1.824219721793457</v>
       </c>
       <c r="C21">
-        <v>18.3994267451354</v>
+        <v>31.19902795914266</v>
       </c>
       <c r="D21">
-        <v>0.004955858638311011</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E21">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F21">
-        <v>1.479138362253433</v>
+        <v>2.508104179473213</v>
       </c>
       <c r="G21">
-        <v>7.105761199845928</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="H21">
-        <v>0.2890124970158221</v>
+        <v>0.4900646688529159</v>
       </c>
       <c r="I21">
-        <v>8.145500076517401</v>
+        <v>13.81193491235559</v>
       </c>
       <c r="J21">
-        <v>1.02258574710886</v>
+        <v>1.733949745097632</v>
       </c>
       <c r="K21">
-        <v>5.150118305973644</v>
+        <v>8.732809301433569</v>
       </c>
       <c r="L21">
-        <v>1.865479475225157</v>
+        <v>3.163204327555701</v>
       </c>
       <c r="M21">
-        <v>11.3622664337903</v>
+        <v>19.26645177903572</v>
       </c>
       <c r="N21">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O21">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P21">
-        <v>57.87168629795546</v>
+        <v>98.13025067914189</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.983983220571905</v>
+        <v>3.364145460969753</v>
       </c>
       <c r="C22">
-        <v>33.93141036115883</v>
+        <v>57.53586974283451</v>
       </c>
       <c r="D22">
-        <v>0.005477527968659539</v>
+        <v>0.009287982207727049</v>
       </c>
       <c r="E22">
-        <v>1.981229153823378</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="F22">
-        <v>2.636724906625686</v>
+        <v>4.470968319930508</v>
       </c>
       <c r="G22">
-        <v>12.66679170407317</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="H22">
-        <v>1.033775470095057</v>
+        <v>1.752923623204661</v>
       </c>
       <c r="I22">
-        <v>29.13582719677378</v>
+        <v>49.40422872496426</v>
       </c>
       <c r="J22">
-        <v>1.75543886587021</v>
+        <v>2.976613729084269</v>
       </c>
       <c r="K22">
-        <v>8.841036425254755</v>
+        <v>14.99132263412763</v>
       </c>
       <c r="L22">
-        <v>3.052602777641165</v>
+        <v>5.176152536000234</v>
       </c>
       <c r="M22">
-        <v>18.59279961892958</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="N22">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O22">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P22">
-        <v>116.3334134138127</v>
+        <v>197.2610053538563</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.792346605211363</v>
+        <v>4.734848591445353</v>
       </c>
       <c r="C23">
-        <v>47.75658259080604</v>
+        <v>80.97855308875803</v>
       </c>
       <c r="D23">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E23">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F23">
-        <v>2.122241998015796</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G23">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H23">
-        <v>0.81145816469827</v>
+        <v>1.37595080101011</v>
       </c>
       <c r="I23">
-        <v>22.87005790714501</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="J23">
-        <v>2.028128398432573</v>
+        <v>3.43900032777697</v>
       </c>
       <c r="K23">
-        <v>10.21440130684773</v>
+        <v>17.32007178117658</v>
       </c>
       <c r="L23">
-        <v>3.052602777641165</v>
+        <v>5.176152536000234</v>
       </c>
       <c r="M23">
-        <v>18.59279961892958</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="N23">
-        <v>0.07459803315559918</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O23">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P23">
-        <v>122.9192613237166</v>
+        <v>208.4283126793454</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.413089846255488</v>
+        <v>5.787413217563658</v>
       </c>
       <c r="C24">
-        <v>58.37294941406596</v>
+        <v>98.98021857167707</v>
       </c>
       <c r="D24">
-        <v>0.007303370624879388</v>
+        <v>0.01238397627696939</v>
       </c>
       <c r="E24">
-        <v>2.641638871764505</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="F24">
-        <v>3.472759633116758</v>
+        <v>5.888592421371889</v>
       </c>
       <c r="G24">
-        <v>16.68309151268174</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="H24">
-        <v>0.4335187455237333</v>
+        <v>0.735097003279374</v>
       </c>
       <c r="I24">
-        <v>12.2182501147761</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="J24">
-        <v>2.437162697276117</v>
+        <v>4.132580225816026</v>
       </c>
       <c r="K24">
-        <v>12.27444862923718</v>
+        <v>20.81319550175001</v>
       </c>
       <c r="L24">
-        <v>4.409315123259461</v>
+        <v>7.47666477422256</v>
       </c>
       <c r="M24">
-        <v>26.85626611623161</v>
+        <v>45.53888602317533</v>
       </c>
       <c r="N24">
-        <v>0.0959117569143418</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O24">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P24">
-        <v>144.8315054911232</v>
+        <v>245.583857137122</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.57079515905092</v>
+        <v>4.359174400129822</v>
       </c>
       <c r="C25">
-        <v>43.96746131305088</v>
+        <v>74.55352135691237</v>
       </c>
       <c r="D25">
-        <v>0.004695023973136749</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E25">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F25">
-        <v>3.279828542388048</v>
+        <v>5.561448397962342</v>
       </c>
       <c r="G25">
-        <v>15.75625309531054</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="H25">
-        <v>0.9226168173966631</v>
+        <v>1.564437212107385</v>
       </c>
       <c r="I25">
-        <v>26.00294255195939</v>
+        <v>44.09194606636594</v>
       </c>
       <c r="J25">
-        <v>2.760981517193923</v>
+        <v>4.681664311763608</v>
       </c>
       <c r="K25">
-        <v>13.90531942612884</v>
+        <v>23.57858511387064</v>
       </c>
       <c r="L25">
-        <v>7.066210133428621</v>
+        <v>11.98183457407462</v>
       </c>
       <c r="M25">
-        <v>43.03888800678143</v>
+        <v>72.97898401149895</v>
       </c>
       <c r="N25">
-        <v>0.1918235138286836</v>
+        <v>0.3252659582312463</v>
       </c>
       <c r="O25">
-        <v>3.031599318790593</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="P25">
-        <v>164.1976108368446</v>
+        <v>278.4220357668234</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.183579118013746</v>
+        <v>3.702590678371136</v>
       </c>
       <c r="C26">
-        <v>37.34503313391122</v>
+        <v>63.32418661837122</v>
       </c>
       <c r="D26">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E26">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F26">
-        <v>3.086897451659339</v>
+        <v>5.23430437455279</v>
       </c>
       <c r="G26">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H26">
-        <v>0.4446346107935726</v>
+        <v>0.7539456443891015</v>
       </c>
       <c r="I26">
-        <v>12.53153857925754</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="J26">
-        <v>3.272274390748353</v>
+        <v>5.548639184312425</v>
       </c>
       <c r="K26">
-        <v>16.48037857911566</v>
+        <v>27.94498976458743</v>
       </c>
       <c r="L26">
-        <v>11.07981748921608</v>
+        <v>18.787516612149</v>
       </c>
       <c r="M26">
-        <v>67.48497639463326</v>
+        <v>114.4310469300304</v>
       </c>
       <c r="N26">
-        <v>0.07459803315559918</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O26">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P26">
-        <v>171.6003841105352</v>
+        <v>290.9745643613423</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.618698174436962</v>
+        <v>4.440401252306152</v>
       </c>
       <c r="C27">
-        <v>44.78673077851144</v>
+        <v>75.94271740704114</v>
       </c>
       <c r="D27">
-        <v>0.01069422127214482</v>
+        <v>0.01813367954841947</v>
       </c>
       <c r="E27">
-        <v>3.868114062226596</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="F27">
-        <v>5.723622358285025</v>
+        <v>9.705272694483304</v>
       </c>
       <c r="G27">
-        <v>27.4962063820125</v>
+        <v>46.62400212602119</v>
       </c>
       <c r="H27">
-        <v>0.1889697095872684</v>
+        <v>0.320426898865368</v>
       </c>
       <c r="I27">
-        <v>5.325903896184456</v>
+        <v>9.030880519617121</v>
       </c>
       <c r="J27">
-        <v>2.658722942483037</v>
+        <v>4.508269337253845</v>
       </c>
       <c r="K27">
-        <v>13.39030759553147</v>
+        <v>22.70530418372728</v>
       </c>
       <c r="L27">
-        <v>3.617899588315455</v>
+        <v>6.134699301926206</v>
       </c>
       <c r="M27">
-        <v>22.0359106594721</v>
+        <v>37.36523981388747</v>
       </c>
       <c r="N27">
-        <v>0.1598529281905697</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O27">
-        <v>2.526332765658827</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P27">
-        <v>134.4079660621678</v>
+        <v>227.9091598445455</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.814302153929964</v>
+        <v>4.772077565359505</v>
       </c>
       <c r="C28">
-        <v>48.13208109580877</v>
+        <v>81.61526794506706</v>
       </c>
       <c r="D28">
-        <v>0.01095505593731908</v>
+        <v>0.0185759644154541</v>
       </c>
       <c r="E28">
-        <v>3.962458307646756</v>
+        <v>6.718951043401023</v>
       </c>
       <c r="F28">
-        <v>5.273449813251372</v>
+        <v>8.941936639861016</v>
       </c>
       <c r="G28">
-        <v>25.33358340814634</v>
+        <v>42.95694577903075</v>
       </c>
       <c r="H28">
-        <v>0.1445062485079111</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I28">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J28">
-        <v>2.84619699611966</v>
+        <v>4.826160123855078</v>
       </c>
       <c r="K28">
-        <v>14.33449595162664</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="L28">
-        <v>3.391780864045739</v>
+        <v>5.751280595555816</v>
       </c>
       <c r="M28">
-        <v>20.65866624325509</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="N28">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O28">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P28">
-        <v>133.482332824127</v>
+        <v>226.3396078322154</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.768395097518343</v>
+        <v>4.694235165357191</v>
       </c>
       <c r="C29">
-        <v>47.34694785807573</v>
+        <v>80.28395506369364</v>
       </c>
       <c r="D29">
-        <v>0.009911717276622023</v>
+        <v>0.01680682494731561</v>
       </c>
       <c r="E29">
-        <v>3.585081325966113</v>
+        <v>6.079050944029497</v>
       </c>
       <c r="F29">
-        <v>4.694656541065244</v>
+        <v>7.960504569632371</v>
       </c>
       <c r="G29">
-        <v>22.55306815603272</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="H29">
-        <v>0.2000855748571077</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I29">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J29">
-        <v>3.357489869674092</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K29">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L29">
-        <v>3.504840226180596</v>
+        <v>5.94298994874101</v>
       </c>
       <c r="M29">
-        <v>21.34728845136359</v>
+        <v>36.19757606970347</v>
       </c>
       <c r="N29">
-        <v>0.1491960663111984</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O29">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P29">
-        <v>134.4236189308823</v>
+        <v>227.9357016654091</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.85821325136717</v>
+        <v>4.846535513187813</v>
       </c>
       <c r="C30">
-        <v>48.88307810581433</v>
+        <v>82.88869765768513</v>
       </c>
       <c r="D30">
-        <v>0.01069422127214482</v>
+        <v>0.01813367954841947</v>
       </c>
       <c r="E30">
-        <v>3.868114062226596</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="F30">
-        <v>5.916553449013731</v>
+        <v>10.03241671789285</v>
       </c>
       <c r="G30">
-        <v>28.42304479938371</v>
+        <v>48.19559770330282</v>
       </c>
       <c r="H30">
-        <v>0.2000855748571077</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I30">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J30">
-        <v>2.931412475045399</v>
+        <v>4.970655935946546</v>
       </c>
       <c r="K30">
-        <v>14.76367247712444</v>
+        <v>25.03405333077623</v>
       </c>
       <c r="L30">
-        <v>2.826484053371449</v>
+        <v>4.792733829629849</v>
       </c>
       <c r="M30">
-        <v>17.21555520271257</v>
+        <v>29.19159360459958</v>
       </c>
       <c r="N30">
-        <v>0.1065686187937131</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O30">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P30">
-        <v>135.3268904954208</v>
+        <v>229.4673360574526</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.926075856497398</v>
+        <v>4.961606887104286</v>
       </c>
       <c r="C31">
-        <v>50.04370984855012</v>
+        <v>84.85672539536759</v>
       </c>
       <c r="D31">
-        <v>0.00965088261144776</v>
+        <v>0.01636454008028099</v>
       </c>
       <c r="E31">
-        <v>3.490737080545952</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="F31">
-        <v>6.495346721199859</v>
+        <v>11.0138487881215</v>
       </c>
       <c r="G31">
-        <v>31.20356005149733</v>
+        <v>52.91038443514766</v>
       </c>
       <c r="H31">
-        <v>0.3112442275555009</v>
+        <v>0.5277619510723709</v>
       </c>
       <c r="I31">
-        <v>8.772077005480281</v>
+        <v>14.87439144407526</v>
       </c>
       <c r="J31">
-        <v>2.505335080416708</v>
+        <v>4.248176875489199</v>
       </c>
       <c r="K31">
-        <v>12.61778984963543</v>
+        <v>21.39538278851225</v>
       </c>
       <c r="L31">
-        <v>2.374246604832017</v>
+        <v>4.025896416889071</v>
       </c>
       <c r="M31">
-        <v>14.46106637027856</v>
+        <v>24.52093862786365</v>
       </c>
       <c r="N31">
-        <v>0.1598529281905697</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O31">
-        <v>2.526332765658827</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P31">
-        <v>137.89702527295</v>
+        <v>233.8253906802196</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.22746566163458</v>
+        <v>5.472659165380374</v>
       </c>
       <c r="C32">
-        <v>55.19828023540624</v>
+        <v>93.59708387742796</v>
       </c>
       <c r="D32">
-        <v>0.01043338660697055</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E32">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F32">
-        <v>5.659311994708787</v>
+        <v>9.596224686680117</v>
       </c>
       <c r="G32">
-        <v>27.18726024288876</v>
+        <v>46.100136933594</v>
       </c>
       <c r="H32">
-        <v>0.3779394191745368</v>
+        <v>0.640853797730736</v>
       </c>
       <c r="I32">
-        <v>10.65180779236891</v>
+        <v>18.06176103923424</v>
       </c>
       <c r="J32">
-        <v>2.471248888846412</v>
+        <v>4.190378550652613</v>
       </c>
       <c r="K32">
-        <v>12.44611923943631</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="L32">
-        <v>1.526301388820582</v>
+        <v>2.588076268000117</v>
       </c>
       <c r="M32">
-        <v>9.296399809464789</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="N32">
-        <v>0.2770784088636541</v>
+        <v>0.4698286063340222</v>
       </c>
       <c r="O32">
-        <v>4.378976793808635</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="P32">
-        <v>136.4823930788356</v>
+        <v>231.4266665249821</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.582746359081057</v>
+        <v>6.075091652354836</v>
       </c>
       <c r="C33">
-        <v>61.27452877090551</v>
+        <v>103.9002879158833</v>
       </c>
       <c r="D33">
-        <v>0.006781701294530859</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E33">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F33">
-        <v>4.373104723184063</v>
+        <v>7.415264530616456</v>
       </c>
       <c r="G33">
-        <v>21.00833746041404</v>
+        <v>35.6228330850499</v>
       </c>
       <c r="H33">
-        <v>0.5780249940316442</v>
+        <v>0.9801293377058319</v>
       </c>
       <c r="I33">
-        <v>16.2910001530348</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="J33">
-        <v>2.403076505705822</v>
+        <v>4.074781900979436</v>
       </c>
       <c r="K33">
-        <v>12.10277801903806</v>
+        <v>20.52210185836888</v>
       </c>
       <c r="L33">
-        <v>1.300182664550867</v>
+        <v>2.20465756162973</v>
       </c>
       <c r="M33">
-        <v>7.919155393247785</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="N33">
-        <v>0.07459803315559918</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O33">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P33">
-        <v>134.5462204492088</v>
+        <v>228.1435911964844</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.478956492411299</v>
+        <v>5.899100139306111</v>
       </c>
       <c r="C34">
-        <v>59.49944492907424</v>
+        <v>100.8903631406042</v>
       </c>
       <c r="D34">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E34">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F34">
-        <v>3.601380360269229</v>
+        <v>6.10668843697826</v>
       </c>
       <c r="G34">
-        <v>17.30098379092922</v>
+        <v>29.33645077592344</v>
       </c>
       <c r="H34">
-        <v>0.7781105688887519</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I34">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J34">
-        <v>1.295275279671223</v>
+        <v>2.196336343790335</v>
       </c>
       <c r="K34">
-        <v>6.523483187566614</v>
+        <v>11.06155844848252</v>
       </c>
       <c r="L34">
-        <v>1.130593621348579</v>
+        <v>1.91709353185194</v>
       </c>
       <c r="M34">
-        <v>6.88622208108503</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="N34">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O34">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P34">
-        <v>124.2120082326522</v>
+        <v>210.6203617858016</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.453033579560232</v>
+        <v>4.159491721863002</v>
       </c>
       <c r="C35">
-        <v>41.95342387712696</v>
+        <v>71.13841440034571</v>
       </c>
       <c r="D35">
-        <v>0.003912519977613957</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E35">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F35">
-        <v>3.151207815235574</v>
+        <v>5.343352382355974</v>
       </c>
       <c r="G35">
-        <v>15.13836081706306</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="H35">
-        <v>0.6002567245713231</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I35">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J35">
-        <v>0.6646807356207592</v>
+        <v>1.127067334313461</v>
       </c>
       <c r="K35">
-        <v>3.347576898882868</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="L35">
-        <v>0.6783561728091481</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M35">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N35">
-        <v>0.03197058563811394</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O35">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P35">
-        <v>90.99252029156851</v>
+        <v>154.2916648422249</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.07978925134399</v>
+        <v>3.526599165322415</v>
       </c>
       <c r="C36">
-        <v>35.56994929207997</v>
+        <v>60.31426184309213</v>
       </c>
       <c r="D36">
-        <v>0.008085874620402177</v>
+        <v>0.01371083087807326</v>
       </c>
       <c r="E36">
-        <v>2.924671608024987</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="F36">
-        <v>2.122241998015796</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G36">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H36">
-        <v>0.5113298024126085</v>
+        <v>0.8670374910474667</v>
       </c>
       <c r="I36">
-        <v>14.41126936614617</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="J36">
-        <v>0.6305945440504637</v>
+        <v>1.069269009476873</v>
       </c>
       <c r="K36">
-        <v>3.175906288683747</v>
+        <v>5.385232402550701</v>
       </c>
       <c r="L36">
-        <v>1.07406394028115</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M36">
-        <v>6.541910977030779</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="N36">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O36">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P36">
-        <v>79.42411458002996</v>
+        <v>134.6756725487465</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.668621702613795</v>
+        <v>2.829402017475566</v>
       </c>
       <c r="C37">
-        <v>28.53788638021002</v>
+        <v>48.3903290794866</v>
       </c>
       <c r="D37">
-        <v>0.005999197299008067</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E37">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F37">
-        <v>1.672069452982142</v>
+        <v>2.835248202882763</v>
       </c>
       <c r="G37">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H37">
-        <v>0.4335187455237333</v>
+        <v>0.735097003279374</v>
       </c>
       <c r="I37">
-        <v>12.2182501147761</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="J37">
-        <v>0.3579050114881012</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K37">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L37">
-        <v>0.6783561728091481</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M37">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N37">
-        <v>0.02131372375874263</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O37">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P37">
-        <v>62.06755678783793</v>
+        <v>105.2449875967687</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.265437989781276</v>
+        <v>2.145742678324773</v>
       </c>
       <c r="C38">
-        <v>21.64236837925019</v>
+        <v>36.69792899090249</v>
       </c>
       <c r="D38">
-        <v>0.006781701294530859</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E38">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F38">
-        <v>1.414827998677197</v>
+        <v>2.399056171670029</v>
       </c>
       <c r="G38">
-        <v>6.79681506072219</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="H38">
-        <v>0.1445062485079111</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I38">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J38">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K38">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L38">
-        <v>0.4522374485394318</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M38">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N38">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O38">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P38">
-        <v>42.62254073703217</v>
+        <v>72.27300385844585</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.7923957128441113</v>
+        <v>1.343627513083492</v>
       </c>
       <c r="C39">
-        <v>13.55208240782701</v>
+        <v>22.97961799588058</v>
       </c>
       <c r="D39">
-        <v>0.004434189307962484</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E39">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F39">
-        <v>1.093276180796016</v>
+        <v>1.853816132654114</v>
       </c>
       <c r="G39">
-        <v>5.252084365103511</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="H39">
-        <v>0.1000427874285538</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I39">
-        <v>2.819596180332947</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J39">
-        <v>0.3749481072732488</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K39">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L39">
-        <v>0.7348858538765769</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M39">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N39">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O39">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P39">
-        <v>32.8710980680849</v>
+        <v>55.73794889805701</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5947957743766876</v>
+        <v>1.008566747856123</v>
       </c>
       <c r="C40">
-        <v>10.17259586280213</v>
+        <v>17.24918428909928</v>
       </c>
       <c r="D40">
-        <v>0.006260031964182331</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E40">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F40">
-        <v>0.5787932721861261</v>
+        <v>0.9814320702286485</v>
       </c>
       <c r="G40">
-        <v>2.780515252113624</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="H40">
-        <v>0.03334759580951795</v>
+        <v>0.05654592332918261</v>
       </c>
       <c r="I40">
-        <v>0.9398653934443156</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="J40">
-        <v>0.1533878620663291</v>
+        <v>0.2600924617646449</v>
       </c>
       <c r="K40">
-        <v>0.7725177458960465</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="L40">
-        <v>0.5087671296068608</v>
+        <v>0.8626920893333727</v>
       </c>
       <c r="M40">
-        <v>3.098799936488263</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="N40">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O40">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P40">
-        <v>22.08298679309457</v>
+        <v>37.44506456220385</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.379232205139499</v>
+        <v>0.6430459130626288</v>
       </c>
       <c r="C41">
-        <v>6.485883268229554</v>
+        <v>10.99780206351967</v>
       </c>
       <c r="D41">
-        <v>0.007042535959705122</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E41">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="H41">
-        <v>0.01111586526983932</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I41">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J41">
-        <v>0.3238188199178058</v>
+        <v>0.5490840859475837</v>
       </c>
       <c r="K41">
-        <v>1.630870796891654</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="L41">
-        <v>0.5087671296068608</v>
+        <v>0.8626920893333727</v>
       </c>
       <c r="M41">
-        <v>3.098799936488263</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="N41">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O41">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P41">
-        <v>15.48519269458559</v>
+        <v>26.25750065603643</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2275393230836994</v>
+        <v>0.3858275478375772</v>
       </c>
       <c r="C42">
-        <v>3.891529960937732</v>
+        <v>6.598681238111804</v>
       </c>
       <c r="D42">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E42">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F42">
-        <v>0.5787932721861261</v>
+        <v>0.9814320702286485</v>
       </c>
       <c r="G42">
-        <v>2.780515252113624</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="J42">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K42">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L42">
-        <v>0.8479452160114348</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M42">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P42">
-        <v>17.01259895940968</v>
+        <v>28.8474504094338</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2814302153929966</v>
+        <v>0.4772077565359509</v>
       </c>
       <c r="C43">
-        <v>4.81320810958088</v>
+        <v>8.161526794506704</v>
       </c>
       <c r="D43">
-        <v>0.003912519977613957</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E43">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F43">
-        <v>0.4501725450336536</v>
+        <v>0.7633360546222825</v>
       </c>
       <c r="G43">
-        <v>2.162622973866152</v>
+        <v>3.66705634699043</v>
       </c>
       <c r="H43">
-        <v>0.04446346107935727</v>
+        <v>0.07539456443891014</v>
       </c>
       <c r="I43">
-        <v>1.253153857925754</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="J43">
-        <v>0.2386033409920673</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K43">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L43">
-        <v>1.07406394028115</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M43">
-        <v>6.541910977030779</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="P43">
-        <v>19.48039989385667</v>
+        <v>33.03198242871348</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.465058441039491</v>
+        <v>0.7885773565452234</v>
       </c>
       <c r="C44">
-        <v>7.953741060513082</v>
+        <v>13.48677832000045</v>
       </c>
       <c r="D44">
-        <v>0.00339085064726543</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E44">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F44">
-        <v>0.9003450900673072</v>
+        <v>1.526672109244565</v>
       </c>
       <c r="G44">
-        <v>4.325245947732304</v>
+        <v>7.334112693980861</v>
       </c>
       <c r="H44">
-        <v>0.02223173053967863</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I44">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J44">
-        <v>0.3919912030583965</v>
+        <v>0.6646807356207592</v>
       </c>
       <c r="K44">
-        <v>1.974212017289896</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="L44">
-        <v>1.300182664550867</v>
+        <v>2.20465756162973</v>
       </c>
       <c r="M44">
-        <v>7.919155393247785</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="P44">
-        <v>27.10860651811104</v>
+        <v>45.96676757418828</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.053866338492923</v>
+        <v>1.786990747879305</v>
       </c>
       <c r="C45">
-        <v>18.02392824013264</v>
+        <v>30.56231310283363</v>
       </c>
       <c r="D45">
-        <v>0.003912519977613957</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E45">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F45">
-        <v>2.122241998015796</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G45">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H45">
-        <v>0.2778966317459828</v>
+        <v>0.4712160277431883</v>
       </c>
       <c r="I45">
-        <v>7.832211612035962</v>
+        <v>13.28070664649576</v>
       </c>
       <c r="J45">
-        <v>0.9884995555385648</v>
+        <v>1.676151420261045</v>
       </c>
       <c r="K45">
-        <v>4.978447695774523</v>
+        <v>8.44171565805245</v>
       </c>
       <c r="L45">
-        <v>2.035068518427443</v>
+        <v>3.450768357333491</v>
       </c>
       <c r="M45">
-        <v>12.39519974595305</v>
+        <v>21.01794739531169</v>
       </c>
       <c r="N45">
-        <v>0.01065686187937131</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O45">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P45">
-        <v>61.50073817473682</v>
+        <v>104.2838603832494</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.944064041083539</v>
+        <v>3.296456417489474</v>
       </c>
       <c r="C46">
-        <v>33.24868580660834</v>
+        <v>56.37820636772719</v>
       </c>
       <c r="D46">
-        <v>0.00417335464278822</v>
+        <v>0.00707655787255394</v>
       </c>
       <c r="E46">
-        <v>1.509507926722574</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="F46">
-        <v>3.794311450997935</v>
+        <v>6.433832460387806</v>
       </c>
       <c r="G46">
-        <v>18.22782220830042</v>
+        <v>30.90804635320506</v>
       </c>
       <c r="H46">
-        <v>1.000427874285538</v>
+        <v>1.696377699875478</v>
       </c>
       <c r="I46">
-        <v>28.19596180332947</v>
+        <v>47.81054392738476</v>
       </c>
       <c r="J46">
-        <v>1.704309578514767</v>
+        <v>2.889916241829388</v>
       </c>
       <c r="K46">
-        <v>8.583530509956072</v>
+        <v>14.55468216905595</v>
       </c>
       <c r="L46">
-        <v>3.335251182978309</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M46">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N46">
-        <v>0.04262744751748525</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O46">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P46">
-        <v>122.5787170616471</v>
+        <v>207.8508680610537</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.736459753927648</v>
+        <v>4.640083930572967</v>
       </c>
       <c r="C47">
-        <v>46.80076821443535</v>
+        <v>79.35782436360773</v>
       </c>
       <c r="D47">
-        <v>0.002608346651742638</v>
+        <v>0.004422848670346211</v>
       </c>
       <c r="E47">
-        <v>0.9434424542016089</v>
+        <v>1.599750248428815</v>
       </c>
       <c r="F47">
-        <v>3.086897451659339</v>
+        <v>5.23430437455279</v>
       </c>
       <c r="G47">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H47">
-        <v>0.7892264341585913</v>
+        <v>1.338253518790655</v>
       </c>
       <c r="I47">
-        <v>22.24348097818213</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="J47">
-        <v>1.97699911107713</v>
+        <v>3.352302840522089</v>
       </c>
       <c r="K47">
-        <v>9.956895391549045</v>
+        <v>16.8834313161049</v>
       </c>
       <c r="L47">
-        <v>3.335251182978309</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M47">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N47">
-        <v>0.08525489503497051</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O47">
-        <v>1.347377475018042</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P47">
-        <v>128.4484315060141</v>
+        <v>217.8038621188934</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.345227241125264</v>
+        <v>5.672341843647186</v>
       </c>
       <c r="C48">
-        <v>57.21231767133015</v>
+        <v>97.01219083399459</v>
       </c>
       <c r="D48">
-        <v>0.005738362633833804</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E48">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F48">
-        <v>5.016208358946426</v>
+        <v>8.505744608648284</v>
       </c>
       <c r="G48">
-        <v>24.09779885165141</v>
+        <v>40.86148500932193</v>
       </c>
       <c r="H48">
-        <v>0.4224028802538939</v>
+        <v>0.7162483621696465</v>
       </c>
       <c r="I48">
-        <v>11.90496165029466</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="J48">
-        <v>2.368990314135527</v>
+        <v>4.016983576142849</v>
       </c>
       <c r="K48">
-        <v>11.93110740883894</v>
+        <v>20.23100821498777</v>
       </c>
       <c r="L48">
-        <v>4.805022890731466</v>
+        <v>8.147647510370742</v>
       </c>
       <c r="M48">
-        <v>29.26644384461138</v>
+        <v>49.6257091278193</v>
       </c>
       <c r="N48">
-        <v>0.1065686187937131</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O48">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P48">
-        <v>154.2425833363628</v>
+        <v>261.5417717442673</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.51890022571604</v>
+        <v>4.271178643605461</v>
       </c>
       <c r="C49">
-        <v>43.07991939213524</v>
+        <v>73.04855896927273</v>
       </c>
       <c r="D49">
-        <v>0.003651685312439694</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E49">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F49">
-        <v>4.694656541065244</v>
+        <v>7.960504569632371</v>
       </c>
       <c r="G49">
-        <v>22.55306815603272</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="H49">
-        <v>0.9003850868569843</v>
+        <v>1.52673992988793</v>
       </c>
       <c r="I49">
-        <v>25.37636562299653</v>
+        <v>43.02948953464629</v>
       </c>
       <c r="J49">
-        <v>2.692809134053333</v>
+        <v>4.566067662090433</v>
       </c>
       <c r="K49">
-        <v>13.56197820573059</v>
+        <v>22.9963978271084</v>
       </c>
       <c r="L49">
-        <v>7.688036625170342</v>
+        <v>13.03623601659319</v>
       </c>
       <c r="M49">
-        <v>46.82631015137819</v>
+        <v>79.40113460451084</v>
       </c>
       <c r="N49">
-        <v>0.2131372375874263</v>
+        <v>0.3614066202569401</v>
       </c>
       <c r="O49">
-        <v>3.368443687545104</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="P49">
-        <v>174.7984811874624</v>
+        <v>296.3974246222189</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>3.777048626199441</v>
+        <v>2.222008287111039</v>
       </c>
       <c r="C2">
-        <v>64.59761633098924</v>
+        <v>38.00227453240586</v>
       </c>
       <c r="D2">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E2">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F2">
-        <v>3.598584257505045</v>
+        <v>2.117019089078924</v>
       </c>
       <c r="G2">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H2">
-        <v>0.7727942854988289</v>
+        <v>0.4546288588130507</v>
       </c>
       <c r="I2">
-        <v>21.78035890025306</v>
+        <v>12.8132154923598</v>
       </c>
       <c r="J2">
-        <v>5.693134996403896</v>
+        <v>3.349226974178584</v>
       </c>
       <c r="K2">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="L2">
-        <v>17.25384178666745</v>
+        <v>10.15030073177921</v>
       </c>
       <c r="M2">
-        <v>105.0897369765585</v>
+        <v>61.82347371238275</v>
       </c>
       <c r="N2">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O2">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P2">
-        <v>273.8745068413555</v>
+        <v>161.1182391480834</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.531781461004525</v>
+        <v>2.666011735162798</v>
       </c>
       <c r="C3">
-        <v>77.50556296343606</v>
+        <v>45.59591899542244</v>
       </c>
       <c r="D3">
-        <v>0.02344109795283492</v>
+        <v>0.01379021534138716</v>
       </c>
       <c r="E3">
-        <v>8.47867631667272</v>
+        <v>4.987939236126766</v>
       </c>
       <c r="F3">
-        <v>6.76097648379736</v>
+        <v>3.977429803724037</v>
       </c>
       <c r="G3">
-        <v>32.47964193048667</v>
+        <v>19.10752036162157</v>
       </c>
       <c r="H3">
-        <v>0.3392755399750957</v>
+        <v>0.1995931575276808</v>
       </c>
       <c r="I3">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="J3">
-        <v>4.623865986927019</v>
+        <v>2.720184344510526</v>
       </c>
       <c r="K3">
-        <v>23.28749147048952</v>
+        <v>13.69984984427443</v>
       </c>
       <c r="L3">
-        <v>5.655425918963222</v>
+        <v>3.32704301763874</v>
       </c>
       <c r="M3">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="N3">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O3">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P3">
-        <v>211.945509245832</v>
+        <v>124.6858922317037</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.87022667840591</v>
+        <v>2.865116420387802</v>
       </c>
       <c r="C4">
-        <v>83.29387983897271</v>
+        <v>49.00114072771688</v>
       </c>
       <c r="D4">
-        <v>0.02432566768690417</v>
+        <v>0.01431060082596781</v>
       </c>
       <c r="E4">
-        <v>8.798626366358482</v>
+        <v>5.176163358244758</v>
       </c>
       <c r="F4">
-        <v>6.215736444781442</v>
+        <v>3.656669335681777</v>
       </c>
       <c r="G4">
-        <v>29.86031596835065</v>
+        <v>17.56659130020047</v>
       </c>
       <c r="H4">
-        <v>0.245032334426458</v>
+        <v>0.1441506137699917</v>
       </c>
       <c r="I4">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="J4">
-        <v>4.941756773528253</v>
+        <v>2.907197018195624</v>
       </c>
       <c r="K4">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="L4">
-        <v>5.272007212592832</v>
+        <v>3.101480779154758</v>
       </c>
       <c r="M4">
-        <v>32.11075296505955</v>
+        <v>18.89050585656138</v>
       </c>
       <c r="N4">
-        <v>0.2349143031670111</v>
+        <v>0.1381982547900752</v>
       </c>
       <c r="O4">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="P4">
-        <v>211.3746592785619</v>
+        <v>124.3500656423469</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>4.788999826229573</v>
+        <v>2.817331295933801</v>
       </c>
       <c r="C5">
-        <v>81.9046837888439</v>
+        <v>48.18388751196621</v>
       </c>
       <c r="D5">
-        <v>0.02167195848469644</v>
+        <v>0.01274944437222587</v>
       </c>
       <c r="E5">
-        <v>7.838776217301193</v>
+        <v>4.611490991890784</v>
       </c>
       <c r="F5">
-        <v>5.561448397962342</v>
+        <v>3.271756774031063</v>
       </c>
       <c r="G5">
-        <v>26.71712481378742</v>
+        <v>15.71747642649516</v>
       </c>
       <c r="H5">
-        <v>0.3581241810848232</v>
+        <v>0.2106816662792187</v>
       </c>
       <c r="I5">
-        <v>10.09333705133678</v>
+        <v>5.937831569630152</v>
       </c>
       <c r="J5">
-        <v>5.837630808495363</v>
+        <v>3.434232734944538</v>
       </c>
       <c r="K5">
-        <v>29.40045798149302</v>
+        <v>17.29606042839648</v>
       </c>
       <c r="L5">
-        <v>5.463716565778026</v>
+        <v>3.214261898396749</v>
       </c>
       <c r="M5">
-        <v>33.27841670924352</v>
+        <v>19.57743334225453</v>
       </c>
       <c r="N5">
-        <v>0.2349143031670111</v>
+        <v>0.1381982547900752</v>
       </c>
       <c r="O5">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="P5">
-        <v>215.2119133631759</v>
+        <v>126.607492331699</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>4.944684626234213</v>
+        <v>2.9089194511373</v>
       </c>
       <c r="C6">
-        <v>84.56730955159078</v>
+        <v>49.75028950882168</v>
       </c>
       <c r="D6">
-        <v>0.02344109795283492</v>
+        <v>0.01379021534138716</v>
       </c>
       <c r="E6">
-        <v>8.47867631667272</v>
+        <v>4.987939236126766</v>
       </c>
       <c r="F6">
-        <v>6.979072499403722</v>
+        <v>4.105733990940942</v>
       </c>
       <c r="G6">
-        <v>33.52737231534108</v>
+        <v>19.72389198619002</v>
       </c>
       <c r="H6">
-        <v>0.3581241810848232</v>
+        <v>0.2106816662792187</v>
       </c>
       <c r="I6">
-        <v>10.09333705133678</v>
+        <v>5.937831569630152</v>
       </c>
       <c r="J6">
-        <v>5.086252585619724</v>
+        <v>2.992202778961578</v>
       </c>
       <c r="K6">
-        <v>25.61624061753847</v>
+        <v>15.06983482870187</v>
       </c>
       <c r="L6">
-        <v>4.409315123259461</v>
+        <v>2.593965742565797</v>
       </c>
       <c r="M6">
-        <v>26.85626611623161</v>
+        <v>15.79933217094226</v>
       </c>
       <c r="N6">
-        <v>0.1626329791156231</v>
+        <v>0.09567571485466744</v>
       </c>
       <c r="O6">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="P6">
-        <v>213.6729940490521</v>
+        <v>125.7021580859446</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.063140452324699</v>
+        <v>2.978606090966054</v>
       </c>
       <c r="C7">
-        <v>86.59322045802858</v>
+        <v>50.94211711512472</v>
       </c>
       <c r="D7">
-        <v>0.02122967361766182</v>
+        <v>0.01248925162993554</v>
       </c>
       <c r="E7">
-        <v>7.678801192458312</v>
+        <v>4.517378930831788</v>
       </c>
       <c r="F7">
-        <v>7.63336054622282</v>
+        <v>4.490646552591655</v>
       </c>
       <c r="G7">
-        <v>36.6705634699043</v>
+        <v>21.57300685989533</v>
       </c>
       <c r="H7">
-        <v>0.5466105921820986</v>
+        <v>0.3215667537945969</v>
       </c>
       <c r="I7">
-        <v>15.40561970993508</v>
+        <v>9.063006079961811</v>
       </c>
       <c r="J7">
-        <v>4.363773525162375</v>
+        <v>2.567173975131808</v>
       </c>
       <c r="K7">
-        <v>21.97757007527449</v>
+        <v>12.929233290534</v>
       </c>
       <c r="L7">
-        <v>3.73833238711128</v>
+        <v>2.199231825218828</v>
       </c>
       <c r="M7">
-        <v>22.76944301158766</v>
+        <v>13.39508597101626</v>
       </c>
       <c r="N7">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O7">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P7">
-        <v>216.7128459310319</v>
+        <v>127.4904792705055</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>5.584346087122829</v>
+        <v>3.285227306212558</v>
       </c>
       <c r="C8">
-        <v>95.50722844635507</v>
+        <v>56.18615858285813</v>
       </c>
       <c r="D8">
-        <v>0.0229988130858003</v>
+        <v>0.01353002259909684</v>
       </c>
       <c r="E8">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="F8">
-        <v>6.651928475994173</v>
+        <v>3.913277710115584</v>
       </c>
       <c r="G8">
-        <v>31.95577673805947</v>
+        <v>18.79933454933735</v>
       </c>
       <c r="H8">
-        <v>0.6597024388404639</v>
+        <v>0.3880978063038238</v>
       </c>
       <c r="I8">
-        <v>18.59298930509407</v>
+        <v>10.93811078616081</v>
       </c>
       <c r="J8">
-        <v>4.305975200325787</v>
+        <v>2.533171670825427</v>
       </c>
       <c r="K8">
-        <v>21.68647643189336</v>
+        <v>12.75798516748057</v>
       </c>
       <c r="L8">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M8">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N8">
-        <v>0.4336879443083282</v>
+        <v>0.2551352396124466</v>
       </c>
       <c r="O8">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="P8">
-        <v>217.5660255238114</v>
+        <v>127.9923981794652</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>6.200316382793344</v>
+        <v>3.647597833322063</v>
       </c>
       <c r="C9">
-        <v>106.0419651598318</v>
+        <v>62.38366213563403</v>
       </c>
       <c r="D9">
-        <v>0.01503768547917712</v>
+        <v>0.008846553237871009</v>
       </c>
       <c r="E9">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="F9">
-        <v>5.125256366749608</v>
+        <v>3.015148399597254</v>
       </c>
       <c r="G9">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="H9">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I9">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J9">
-        <v>4.190378550652613</v>
+        <v>2.465167062212664</v>
       </c>
       <c r="K9">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="L9">
-        <v>2.012948208444536</v>
+        <v>1.184201752040908</v>
       </c>
       <c r="M9">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="N9">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O9">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P9">
-        <v>218.5375633226307</v>
+        <v>128.5639462991384</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>6.020940417570611</v>
+        <v>3.542072350152813</v>
       </c>
       <c r="C10">
-        <v>102.9741572157974</v>
+        <v>60.57889461751795</v>
       </c>
       <c r="D10">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E10">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F10">
-        <v>4.252872304324142</v>
+        <v>2.501931650729637</v>
       </c>
       <c r="G10">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="H10">
-        <v>1.357102159900383</v>
+        <v>0.7983726301107231</v>
       </c>
       <c r="I10">
-        <v>38.2484351419078</v>
+        <v>22.50125647438794</v>
       </c>
       <c r="J10">
-        <v>2.254134668626922</v>
+        <v>1.326089867948881</v>
       </c>
       <c r="K10">
-        <v>11.35265209186364</v>
+        <v>6.678676799083785</v>
       </c>
       <c r="L10">
-        <v>1.725384178666745</v>
+        <v>1.015030073177921</v>
       </c>
       <c r="M10">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="N10">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O10">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P10">
-        <v>202.9582309686799</v>
+        <v>119.3987464237614</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>4.244103026213349</v>
+        <v>2.496772752721545</v>
       </c>
       <c r="C11">
-        <v>72.58549361922985</v>
+        <v>42.70148052297219</v>
       </c>
       <c r="D11">
-        <v>0.008403412473657805</v>
+        <v>0.004943662103516153</v>
       </c>
       <c r="E11">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="F11">
-        <v>3.707632265308228</v>
+        <v>2.181171182687376</v>
       </c>
       <c r="G11">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="H11">
-        <v>1.055523902144742</v>
+        <v>0.620956490086118</v>
       </c>
       <c r="I11">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="J11">
-        <v>1.155966496731755</v>
+        <v>0.6800460861276314</v>
       </c>
       <c r="K11">
-        <v>5.82187286762238</v>
+        <v>3.424962461068608</v>
       </c>
       <c r="L11">
-        <v>1.054401442518566</v>
+        <v>0.6202961558309515</v>
       </c>
       <c r="M11">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="N11">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O11">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P11">
-        <v>147.5662398502066</v>
+        <v>86.81206950065372</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>3.597672660976706</v>
+        <v>2.116482803941788</v>
       </c>
       <c r="C12">
-        <v>61.5298083869548</v>
+        <v>36.1975070142898</v>
       </c>
       <c r="D12">
-        <v>0.01769139468138484</v>
+        <v>0.01040770969161295</v>
       </c>
       <c r="E12">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="F12">
-        <v>2.508104179473213</v>
+        <v>1.475498152994401</v>
       </c>
       <c r="G12">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="H12">
-        <v>0.8858861321571943</v>
+        <v>0.5211599113222776</v>
       </c>
       <c r="I12">
-        <v>24.96772849541203</v>
+        <v>14.6883201985588</v>
       </c>
       <c r="J12">
-        <v>1.098168171895167</v>
+        <v>0.6460437818212498</v>
       </c>
       <c r="K12">
-        <v>5.530779224241261</v>
+        <v>3.253714338015177</v>
       </c>
       <c r="L12">
-        <v>1.629529502074148</v>
+        <v>0.958639513556925</v>
       </c>
       <c r="M12">
-        <v>9.925141825563855</v>
+        <v>5.838883628391703</v>
       </c>
       <c r="N12">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O12">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P12">
-        <v>130.442066167058</v>
+        <v>76.7380515041812</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.886937704433802</v>
+        <v>1.698362964969282</v>
       </c>
       <c r="C13">
-        <v>49.37434294832779</v>
+        <v>29.04654137647151</v>
       </c>
       <c r="D13">
-        <v>0.01326854601103864</v>
+        <v>0.007805782268709712</v>
       </c>
       <c r="E13">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="F13">
-        <v>1.962864140457297</v>
+        <v>1.15473768495214</v>
       </c>
       <c r="G13">
-        <v>9.429573463689678</v>
+        <v>5.547344621115943</v>
       </c>
       <c r="H13">
-        <v>0.7539456443891015</v>
+        <v>0.4435403500615129</v>
       </c>
       <c r="I13">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="J13">
-        <v>0.6357815732024655</v>
+        <v>0.3740253473701972</v>
       </c>
       <c r="K13">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="L13">
-        <v>1.054401442518566</v>
+        <v>0.6202961558309515</v>
       </c>
       <c r="M13">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="N13">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O13">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P13">
-        <v>102.3909890610882</v>
+        <v>60.235821334438</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>2.189740556586952</v>
+        <v>1.288207313405773</v>
       </c>
       <c r="C14">
-        <v>37.45041018472227</v>
+        <v>22.03178460794498</v>
       </c>
       <c r="D14">
-        <v>0.01503768547917712</v>
+        <v>0.008846553237871009</v>
       </c>
       <c r="E14">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="F14">
-        <v>1.635720117047748</v>
+        <v>0.962281404126783</v>
       </c>
       <c r="G14">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="H14">
-        <v>0.245032334426458</v>
+        <v>0.1441506137699917</v>
       </c>
       <c r="I14">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="J14">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K14">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L14">
-        <v>0.6709827361481787</v>
+        <v>0.3947339173469691</v>
       </c>
       <c r="M14">
-        <v>4.08682310464394</v>
+        <v>2.404246199925996</v>
       </c>
       <c r="N14">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O14">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P14">
-        <v>69.24274245790984</v>
+        <v>40.73496605167796</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.370703130475603</v>
+        <v>0.8063739751612639</v>
       </c>
       <c r="C15">
-        <v>23.44268334592352</v>
+        <v>13.79114801579245</v>
       </c>
       <c r="D15">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E15">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F15">
-        <v>1.308576093638198</v>
+        <v>0.7698251233014266</v>
       </c>
       <c r="G15">
-        <v>6.286382309126453</v>
+        <v>3.698229747410627</v>
       </c>
       <c r="H15">
-        <v>0.1696377699875478</v>
+        <v>0.09979657876384039</v>
       </c>
       <c r="I15">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="J15">
-        <v>0.6646807356207592</v>
+        <v>0.3910264995233881</v>
       </c>
       <c r="K15">
-        <v>3.347576898882868</v>
+        <v>1.96935341511445</v>
       </c>
       <c r="L15">
-        <v>1.150256119111164</v>
+        <v>0.6766867154519475</v>
       </c>
       <c r="M15">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="N15">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O15">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P15">
-        <v>53.36036984831396</v>
+        <v>31.39148995430565</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.028873460900206</v>
+        <v>0.6052782430840109</v>
       </c>
       <c r="C16">
-        <v>17.59648330163148</v>
+        <v>10.35187406617507</v>
       </c>
       <c r="D16">
-        <v>0.01371083087807326</v>
+        <v>0.008065975011000039</v>
       </c>
       <c r="E16">
-        <v>4.959225770129326</v>
+        <v>2.917473892828863</v>
       </c>
       <c r="F16">
-        <v>0.6542880468190988</v>
+        <v>0.3849125616507133</v>
       </c>
       <c r="G16">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="H16">
-        <v>0.05654592332918261</v>
+        <v>0.03326552625461347</v>
       </c>
       <c r="I16">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="J16">
-        <v>0.2600924617646449</v>
+        <v>0.1530103693787171</v>
       </c>
       <c r="K16">
-        <v>1.309921395215036</v>
+        <v>0.7706165537404369</v>
       </c>
       <c r="L16">
-        <v>0.7668374127407758</v>
+        <v>0.4511244769679648</v>
       </c>
       <c r="M16">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="N16">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O16">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P16">
-        <v>36.3571653063738</v>
+        <v>21.38863716136939</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.6565837217586841</v>
+        <v>0.3862630893365071</v>
       </c>
       <c r="C17">
-        <v>11.22933473854114</v>
+        <v>6.6061301606512</v>
       </c>
       <c r="D17">
-        <v>0.01547997034621174</v>
+        <v>0.009106745980161337</v>
       </c>
       <c r="E17">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="H17">
-        <v>0.01884864110972754</v>
+        <v>0.01108850875153783</v>
       </c>
       <c r="I17">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="J17">
-        <v>0.5490840859475837</v>
+        <v>0.3230218909106249</v>
       </c>
       <c r="K17">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="L17">
-        <v>0.7668374127407758</v>
+        <v>0.4511244769679648</v>
       </c>
       <c r="M17">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="N17">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P17">
-        <v>27.10622306874869</v>
+        <v>15.94637989917679</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3925964521856046</v>
+        <v>0.2309614348610042</v>
       </c>
       <c r="C18">
-        <v>6.714447575622538</v>
+        <v>3.950057209461539</v>
       </c>
       <c r="D18">
-        <v>0.01282626114400402</v>
+        <v>0.007545589526419391</v>
       </c>
       <c r="E18">
-        <v>4.639275720443563</v>
+        <v>2.729249770710871</v>
       </c>
       <c r="F18">
-        <v>0.6542880468190988</v>
+        <v>0.3849125616507133</v>
       </c>
       <c r="G18">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="J18">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K18">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L18">
-        <v>1.341965472296357</v>
+        <v>0.7894678346939381</v>
       </c>
       <c r="M18">
-        <v>8.173646209287881</v>
+        <v>4.808492399851992</v>
       </c>
       <c r="P18">
-        <v>27.51448066988622</v>
+        <v>16.18655466598047</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4873611130579926</v>
+        <v>0.2867107467240051</v>
       </c>
       <c r="C19">
-        <v>8.335176300772808</v>
+        <v>4.903519294503984</v>
       </c>
       <c r="D19">
-        <v>0.008403412473657805</v>
+        <v>0.004943662103516153</v>
       </c>
       <c r="E19">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="F19">
-        <v>0.5452400390159158</v>
+        <v>0.3207604680422612</v>
       </c>
       <c r="G19">
-        <v>2.619325962136021</v>
+        <v>1.540929061421095</v>
       </c>
       <c r="H19">
-        <v>0.07539456443891014</v>
+        <v>0.0443540350061513</v>
       </c>
       <c r="I19">
-        <v>2.124913063439322</v>
+        <v>1.250069804132663</v>
       </c>
       <c r="J19">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K19">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L19">
-        <v>1.629529502074148</v>
+        <v>0.958639513556925</v>
       </c>
       <c r="M19">
-        <v>9.925141825563855</v>
+        <v>5.838883628391703</v>
       </c>
       <c r="P19">
-        <v>31.23225503251133</v>
+        <v>18.3736923655219</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.8054996174152924</v>
+        <v>0.4738691508355083</v>
       </c>
       <c r="C20">
-        <v>13.77619416377727</v>
+        <v>8.104427722860747</v>
       </c>
       <c r="D20">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E20">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F20">
-        <v>1.090480078031832</v>
+        <v>0.6415209360845224</v>
       </c>
       <c r="G20">
-        <v>5.238651924272043</v>
+        <v>3.08185812284219</v>
       </c>
       <c r="H20">
-        <v>0.03769728221945507</v>
+        <v>0.02217701750307565</v>
       </c>
       <c r="I20">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="J20">
-        <v>0.6935798980390531</v>
+        <v>0.4080276516765789</v>
       </c>
       <c r="K20">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="L20">
-        <v>2.012948208444536</v>
+        <v>1.184201752040908</v>
       </c>
       <c r="M20">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="P20">
-        <v>43.19819500349297</v>
+        <v>25.41316164695088</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.824219721793457</v>
+        <v>1.073174253362769</v>
       </c>
       <c r="C21">
-        <v>31.19902795914266</v>
+        <v>18.35414513706699</v>
       </c>
       <c r="D21">
-        <v>0.008403412473657805</v>
+        <v>0.004943662103516153</v>
       </c>
       <c r="E21">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="F21">
-        <v>2.508104179473213</v>
+        <v>1.475498152994401</v>
       </c>
       <c r="G21">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="H21">
-        <v>0.4900646688529159</v>
+        <v>0.2883012275399834</v>
       </c>
       <c r="I21">
-        <v>13.81193491235559</v>
+        <v>8.125453726862313</v>
       </c>
       <c r="J21">
-        <v>1.733949745097632</v>
+        <v>1.020069129191447</v>
       </c>
       <c r="K21">
-        <v>8.732809301433569</v>
+        <v>5.137443691602911</v>
       </c>
       <c r="L21">
-        <v>3.163204327555701</v>
+        <v>1.860888467492854</v>
       </c>
       <c r="M21">
-        <v>19.26645177903572</v>
+        <v>11.33430351393683</v>
       </c>
       <c r="N21">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O21">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P21">
-        <v>98.13025067914189</v>
+        <v>57.72926213151258</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>3.364145460969753</v>
+        <v>1.979100571136535</v>
       </c>
       <c r="C22">
-        <v>57.53586974283451</v>
+        <v>33.84790401900666</v>
       </c>
       <c r="D22">
-        <v>0.009287982207727049</v>
+        <v>0.0054640475880968</v>
       </c>
       <c r="E22">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="F22">
-        <v>4.470968319930508</v>
+        <v>2.63023583794654</v>
       </c>
       <c r="G22">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="H22">
-        <v>1.752923623204661</v>
+        <v>1.031231313893018</v>
       </c>
       <c r="I22">
-        <v>49.40422872496426</v>
+        <v>29.06412294608443</v>
       </c>
       <c r="J22">
-        <v>2.976613729084269</v>
+        <v>1.751118671778651</v>
       </c>
       <c r="K22">
-        <v>14.99132263412763</v>
+        <v>8.819278337251665</v>
       </c>
       <c r="L22">
-        <v>5.176152536000234</v>
+        <v>3.045090219533761</v>
       </c>
       <c r="M22">
-        <v>31.52692109296754</v>
+        <v>18.54704211371482</v>
       </c>
       <c r="N22">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O22">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P22">
-        <v>197.2610053538563</v>
+        <v>116.0471129706285</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>4.734848591445353</v>
+        <v>2.785474546297799</v>
       </c>
       <c r="C23">
-        <v>80.97855308875803</v>
+        <v>47.63905203479909</v>
       </c>
       <c r="D23">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E23">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F23">
-        <v>3.598584257505045</v>
+        <v>2.117019089078924</v>
       </c>
       <c r="G23">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H23">
-        <v>1.37595080101011</v>
+        <v>0.8094611388622611</v>
       </c>
       <c r="I23">
-        <v>38.77966340776763</v>
+        <v>22.81377392542111</v>
       </c>
       <c r="J23">
-        <v>3.43900032777697</v>
+        <v>2.023137106229703</v>
       </c>
       <c r="K23">
-        <v>17.32007178117658</v>
+        <v>10.18926332167911</v>
       </c>
       <c r="L23">
-        <v>5.176152536000234</v>
+        <v>3.045090219533761</v>
       </c>
       <c r="M23">
-        <v>31.52692109296754</v>
+        <v>18.54704211371482</v>
       </c>
       <c r="N23">
-        <v>0.126492317089929</v>
+        <v>0.07441444488696355</v>
       </c>
       <c r="O23">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="P23">
-        <v>208.4283126793454</v>
+        <v>122.6167528873169</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>5.787413217563658</v>
+        <v>3.404690117347558</v>
       </c>
       <c r="C24">
-        <v>98.98021857167707</v>
+        <v>58.2292916222348</v>
       </c>
       <c r="D24">
-        <v>0.01238397627696939</v>
+        <v>0.007285396784129066</v>
       </c>
       <c r="E24">
-        <v>4.479300695600682</v>
+        <v>2.635137709651877</v>
       </c>
       <c r="F24">
-        <v>5.888592421371889</v>
+        <v>3.46421305485642</v>
       </c>
       <c r="G24">
-        <v>28.28872039106904</v>
+        <v>16.64203386334783</v>
       </c>
       <c r="H24">
-        <v>0.735097003279374</v>
+        <v>0.4324518413099753</v>
       </c>
       <c r="I24">
-        <v>20.71790236853339</v>
+        <v>12.18818059029347</v>
       </c>
       <c r="J24">
-        <v>4.132580225816026</v>
+        <v>2.431164757906283</v>
       </c>
       <c r="K24">
-        <v>20.81319550175001</v>
+        <v>12.24424079832027</v>
       </c>
       <c r="L24">
-        <v>7.47666477422256</v>
+        <v>4.398463650437655</v>
       </c>
       <c r="M24">
-        <v>45.53888602317533</v>
+        <v>26.79017194203252</v>
       </c>
       <c r="N24">
-        <v>0.1626329791156231</v>
+        <v>0.09567571485466744</v>
       </c>
       <c r="O24">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="P24">
-        <v>245.583857137122</v>
+        <v>144.4750702848284</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>4.359174400129822</v>
+        <v>2.564468345698045</v>
       </c>
       <c r="C25">
-        <v>74.55352135691237</v>
+        <v>43.85925591195228</v>
       </c>
       <c r="D25">
-        <v>0.007961127606623181</v>
+        <v>0.004683469361225829</v>
       </c>
       <c r="E25">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="F25">
-        <v>5.561448397962342</v>
+        <v>3.271756774031063</v>
       </c>
       <c r="G25">
-        <v>26.71712481378742</v>
+        <v>15.71747642649516</v>
       </c>
       <c r="H25">
-        <v>1.564437212107385</v>
+        <v>0.9203462263776395</v>
       </c>
       <c r="I25">
-        <v>44.09194606636594</v>
+        <v>25.93894843575277</v>
       </c>
       <c r="J25">
-        <v>4.681664311763608</v>
+        <v>2.754186648816907</v>
       </c>
       <c r="K25">
-        <v>23.57858511387064</v>
+        <v>13.87109796732786</v>
       </c>
       <c r="L25">
-        <v>11.98183457407462</v>
+        <v>7.048819952624449</v>
       </c>
       <c r="M25">
-        <v>72.97898401149895</v>
+        <v>42.93296785582133</v>
       </c>
       <c r="N25">
-        <v>0.3252659582312463</v>
+        <v>0.1913514297093349</v>
       </c>
       <c r="O25">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="P25">
-        <v>278.4220357668234</v>
+        <v>163.7935149939318</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>3.702590678371136</v>
+        <v>2.17820525636154</v>
       </c>
       <c r="C26">
-        <v>63.32418661837122</v>
+        <v>37.25312575130111</v>
       </c>
       <c r="D26">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E26">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F26">
-        <v>5.23430437455279</v>
+        <v>3.079300493205706</v>
       </c>
       <c r="G26">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="H26">
-        <v>0.7539456443891015</v>
+        <v>0.4435403500615129</v>
       </c>
       <c r="I26">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="J26">
-        <v>5.548639184312425</v>
+        <v>3.264221213412631</v>
       </c>
       <c r="K26">
-        <v>27.94498976458743</v>
+        <v>16.43981981312932</v>
       </c>
       <c r="L26">
-        <v>18.787516612149</v>
+        <v>11.05254968571514</v>
       </c>
       <c r="M26">
-        <v>114.4310469300304</v>
+        <v>67.31889359792785</v>
       </c>
       <c r="N26">
-        <v>0.126492317089929</v>
+        <v>0.07441444488696355</v>
       </c>
       <c r="O26">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="P26">
-        <v>290.9745643613423</v>
+        <v>171.1780697936102</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.440401252306152</v>
+        <v>2.612253470152047</v>
       </c>
       <c r="C27">
-        <v>75.94271740704114</v>
+        <v>44.67650912770295</v>
       </c>
       <c r="D27">
-        <v>0.01813367954841947</v>
+        <v>0.01066790243390327</v>
       </c>
       <c r="E27">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="F27">
-        <v>9.705272694483304</v>
+        <v>5.709536331152248</v>
       </c>
       <c r="G27">
-        <v>46.62400212602119</v>
+        <v>27.42853729329549</v>
       </c>
       <c r="H27">
-        <v>0.320426898865368</v>
+        <v>0.188504648776143</v>
       </c>
       <c r="I27">
-        <v>9.030880519617121</v>
+        <v>5.31279666756382</v>
       </c>
       <c r="J27">
-        <v>4.508269337253845</v>
+        <v>2.652179735897761</v>
       </c>
       <c r="K27">
-        <v>22.70530418372728</v>
+        <v>13.35735359816757</v>
       </c>
       <c r="L27">
-        <v>6.134699301926206</v>
+        <v>3.608995815743718</v>
       </c>
       <c r="M27">
-        <v>37.36523981388747</v>
+        <v>21.98167954218053</v>
       </c>
       <c r="N27">
-        <v>0.2710549651927052</v>
+        <v>0.1594595247577791</v>
       </c>
       <c r="O27">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="P27">
-        <v>227.9091598445455</v>
+        <v>134.0771835369943</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.772077565359505</v>
+        <v>2.807376061672549</v>
       </c>
       <c r="C28">
-        <v>81.61526794506706</v>
+        <v>48.01362642535149</v>
       </c>
       <c r="D28">
-        <v>0.0185759644154541</v>
+        <v>0.0109280951761936</v>
       </c>
       <c r="E28">
-        <v>6.718951043401023</v>
+        <v>3.952706564477815</v>
       </c>
       <c r="F28">
-        <v>8.941936639861016</v>
+        <v>5.260471675893079</v>
       </c>
       <c r="G28">
-        <v>42.95694577903075</v>
+        <v>25.27123660730595</v>
       </c>
       <c r="H28">
-        <v>0.245032334426458</v>
+        <v>0.1441506137699917</v>
       </c>
       <c r="I28">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="J28">
-        <v>4.826160123855078</v>
+        <v>2.839192409582861</v>
       </c>
       <c r="K28">
-        <v>24.30631922232344</v>
+        <v>14.29921827496144</v>
       </c>
       <c r="L28">
-        <v>5.751280595555816</v>
+        <v>3.383433577259735</v>
       </c>
       <c r="M28">
-        <v>35.0299123255195</v>
+        <v>20.60782457079425</v>
       </c>
       <c r="N28">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O28">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P28">
-        <v>226.3396078322154</v>
+        <v>133.1538283134852</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>4.694235165357191</v>
+        <v>2.761581984070799</v>
       </c>
       <c r="C29">
-        <v>80.28395506369364</v>
+        <v>47.23042542692377</v>
       </c>
       <c r="D29">
-        <v>0.01680682494731561</v>
+        <v>0.009887324207032306</v>
       </c>
       <c r="E29">
-        <v>6.079050944029497</v>
+        <v>3.576258320241832</v>
       </c>
       <c r="F29">
-        <v>7.960504569632371</v>
+        <v>4.683102833417013</v>
       </c>
       <c r="G29">
-        <v>38.24215904718593</v>
+        <v>22.49756429674799</v>
       </c>
       <c r="H29">
-        <v>0.3392755399750957</v>
+        <v>0.1995931575276808</v>
       </c>
       <c r="I29">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="J29">
-        <v>5.693134996403896</v>
+        <v>3.349226974178584</v>
       </c>
       <c r="K29">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="L29">
-        <v>5.94298994874101</v>
+        <v>3.496214696501727</v>
       </c>
       <c r="M29">
-        <v>36.19757606970347</v>
+        <v>21.29475205648738</v>
       </c>
       <c r="N29">
-        <v>0.2529846341798581</v>
+        <v>0.1488288897739271</v>
       </c>
       <c r="O29">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="P29">
-        <v>227.9357016654091</v>
+        <v>134.0927978834724</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.846535513187813</v>
+        <v>2.851179092422049</v>
       </c>
       <c r="C30">
-        <v>82.88869765768513</v>
+        <v>48.76277520645627</v>
       </c>
       <c r="D30">
-        <v>0.01813367954841947</v>
+        <v>0.01066790243390327</v>
       </c>
       <c r="E30">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="F30">
-        <v>10.03241671789285</v>
+        <v>5.901992611977604</v>
       </c>
       <c r="G30">
-        <v>48.19559770330282</v>
+        <v>28.35309473014814</v>
       </c>
       <c r="H30">
-        <v>0.3392755399750957</v>
+        <v>0.1995931575276808</v>
       </c>
       <c r="I30">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="J30">
-        <v>4.970655935946546</v>
+        <v>2.924198170348814</v>
       </c>
       <c r="K30">
-        <v>25.03405333077623</v>
+        <v>14.72733858259501</v>
       </c>
       <c r="L30">
-        <v>4.792733829629849</v>
+        <v>2.81952798104978</v>
       </c>
       <c r="M30">
-        <v>29.19159360459958</v>
+        <v>17.17318714232854</v>
       </c>
       <c r="N30">
-        <v>0.1807033101284701</v>
+        <v>0.1063063498385194</v>
       </c>
       <c r="O30">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="P30">
-        <v>229.4673360574526</v>
+        <v>134.9938464663098</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>4.961606887104286</v>
+        <v>2.918874685398553</v>
       </c>
       <c r="C31">
-        <v>84.85672539536759</v>
+        <v>49.92055059543636</v>
       </c>
       <c r="D31">
-        <v>0.01636454008028099</v>
+        <v>0.009627131464741983</v>
       </c>
       <c r="E31">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="F31">
-        <v>11.0138487881215</v>
+        <v>6.479361454453674</v>
       </c>
       <c r="G31">
-        <v>52.91038443514766</v>
+        <v>31.12676704070611</v>
       </c>
       <c r="H31">
-        <v>0.5277619510723709</v>
+        <v>0.310478245043059</v>
       </c>
       <c r="I31">
-        <v>14.87439144407526</v>
+        <v>8.750488628928645</v>
       </c>
       <c r="J31">
-        <v>4.248176875489199</v>
+        <v>2.499169366519045</v>
       </c>
       <c r="K31">
-        <v>21.39538278851225</v>
+        <v>12.58673704442714</v>
       </c>
       <c r="L31">
-        <v>4.025896416889071</v>
+        <v>2.368403504081816</v>
       </c>
       <c r="M31">
-        <v>24.52093862786365</v>
+        <v>14.42547719955597</v>
       </c>
       <c r="N31">
-        <v>0.2710549651927052</v>
+        <v>0.1594595247577791</v>
       </c>
       <c r="O31">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="P31">
-        <v>233.8253906802196</v>
+        <v>137.5576560557073</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>5.472659165380374</v>
+        <v>3.219522760088305</v>
       </c>
       <c r="C32">
-        <v>93.59708387742796</v>
+        <v>55.06243541120098</v>
       </c>
       <c r="D32">
-        <v>0.01769139468138484</v>
+        <v>0.01040770969161295</v>
       </c>
       <c r="E32">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="F32">
-        <v>9.596224686680117</v>
+        <v>5.645384237543793</v>
       </c>
       <c r="G32">
-        <v>46.100136933594</v>
+        <v>27.12035148101126</v>
       </c>
       <c r="H32">
-        <v>0.640853797730736</v>
+        <v>0.3770092975522861</v>
       </c>
       <c r="I32">
-        <v>18.06176103923424</v>
+        <v>10.62559333512764</v>
       </c>
       <c r="J32">
-        <v>4.190378550652613</v>
+        <v>2.465167062212664</v>
       </c>
       <c r="K32">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="L32">
-        <v>2.588076268000117</v>
+        <v>1.522545109766881</v>
       </c>
       <c r="M32">
-        <v>15.76346054648377</v>
+        <v>9.273521056857412</v>
       </c>
       <c r="N32">
-        <v>0.4698286063340222</v>
+        <v>0.2763965095801505</v>
       </c>
       <c r="O32">
-        <v>7.425221519936382</v>
+        <v>4.368199984636012</v>
       </c>
       <c r="P32">
-        <v>231.4266665249821</v>
+        <v>136.1465053190025</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>6.075091652354836</v>
+        <v>3.573929099788813</v>
       </c>
       <c r="C33">
-        <v>103.9002879158833</v>
+        <v>61.12373009468506</v>
       </c>
       <c r="D33">
-        <v>0.01149940654290015</v>
+        <v>0.00676501129954842</v>
       </c>
       <c r="E33">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="F33">
-        <v>7.415264530616456</v>
+        <v>4.362342365374752</v>
       </c>
       <c r="G33">
-        <v>35.6228330850499</v>
+        <v>20.95663523532689</v>
       </c>
       <c r="H33">
-        <v>0.9801293377058319</v>
+        <v>0.5766024550799668</v>
       </c>
       <c r="I33">
-        <v>27.62386982471118</v>
+        <v>16.25090745372463</v>
       </c>
       <c r="J33">
-        <v>4.074781900979436</v>
+        <v>2.397162453599901</v>
       </c>
       <c r="K33">
-        <v>20.52210185836888</v>
+        <v>12.07299267526684</v>
       </c>
       <c r="L33">
-        <v>2.20465756162973</v>
+        <v>1.296982871282899</v>
       </c>
       <c r="M33">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="N33">
-        <v>0.126492317089929</v>
+        <v>0.07441444488696355</v>
       </c>
       <c r="O33">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="P33">
-        <v>228.1435911964844</v>
+        <v>134.2150976753387</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>5.899100139306111</v>
+        <v>3.47039466347181</v>
       </c>
       <c r="C34">
-        <v>100.8903631406042</v>
+        <v>59.35301479389197</v>
       </c>
       <c r="D34">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E34">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F34">
-        <v>6.10668843697826</v>
+        <v>3.592517242073324</v>
       </c>
       <c r="G34">
-        <v>29.33645077592344</v>
+        <v>17.25840548791626</v>
       </c>
       <c r="H34">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I34">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J34">
-        <v>2.196336343790335</v>
+        <v>1.2920875636425</v>
       </c>
       <c r="K34">
-        <v>11.06155844848252</v>
+        <v>6.507428676030354</v>
       </c>
       <c r="L34">
-        <v>1.91709353185194</v>
+        <v>1.127811192419912</v>
       </c>
       <c r="M34">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="N34">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O34">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P34">
-        <v>210.6203617858016</v>
+        <v>123.9063183026293</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>4.159491721863002</v>
+        <v>2.446996581415294</v>
       </c>
       <c r="C35">
-        <v>71.13841440034571</v>
+        <v>41.85017508989858</v>
       </c>
       <c r="D35">
-        <v>0.00663427300551932</v>
+        <v>0.003902891134354856</v>
       </c>
       <c r="E35">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="F35">
-        <v>5.343352382355974</v>
+        <v>3.143452586814157</v>
       </c>
       <c r="G35">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="H35">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I35">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J35">
-        <v>1.127067334313461</v>
+        <v>0.6630449339744403</v>
       </c>
       <c r="K35">
-        <v>5.67632604593182</v>
+        <v>3.339338399541893</v>
       </c>
       <c r="L35">
-        <v>1.150256119111164</v>
+        <v>0.6766867154519475</v>
       </c>
       <c r="M35">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="N35">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O35">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P35">
-        <v>154.2916648422249</v>
+        <v>90.76858463867704</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.526599165322415</v>
+        <v>2.074670820044537</v>
       </c>
       <c r="C36">
-        <v>60.31426184309213</v>
+        <v>35.48241045050799</v>
       </c>
       <c r="D36">
-        <v>0.01371083087807326</v>
+        <v>0.008065975011000039</v>
       </c>
       <c r="E36">
-        <v>4.959225770129326</v>
+        <v>2.917473892828863</v>
       </c>
       <c r="F36">
-        <v>3.598584257505045</v>
+        <v>2.117019089078924</v>
       </c>
       <c r="G36">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H36">
-        <v>0.8670374910474667</v>
+        <v>0.5100714025707399</v>
       </c>
       <c r="I36">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="J36">
-        <v>1.069269009476873</v>
+        <v>0.629042629668059</v>
       </c>
       <c r="K36">
-        <v>5.385232402550701</v>
+        <v>3.168090276488463</v>
       </c>
       <c r="L36">
-        <v>1.821238855259343</v>
+        <v>1.071420632798916</v>
       </c>
       <c r="M36">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="N36">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O36">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P36">
-        <v>134.6756725487465</v>
+        <v>79.22864916268782</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.829402017475566</v>
+        <v>1.664515168481029</v>
       </c>
       <c r="C37">
-        <v>48.3903290794866</v>
+        <v>28.46765368198146</v>
       </c>
       <c r="D37">
-        <v>0.01017255194179629</v>
+        <v>0.005984433072677447</v>
       </c>
       <c r="E37">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="F37">
-        <v>2.835248202882763</v>
+        <v>1.667954433819758</v>
       </c>
       <c r="G37">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H37">
-        <v>0.735097003279374</v>
+        <v>0.4324518413099753</v>
       </c>
       <c r="I37">
-        <v>20.71790236853339</v>
+        <v>12.18818059029347</v>
       </c>
       <c r="J37">
-        <v>0.6068824107841715</v>
+        <v>0.3570241952170064</v>
       </c>
       <c r="K37">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="L37">
-        <v>1.150256119111164</v>
+        <v>0.6766867154519475</v>
       </c>
       <c r="M37">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="N37">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O37">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P37">
-        <v>105.2449875967687</v>
+        <v>61.91480644299502</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>2.145742678324773</v>
+        <v>1.262323704326522</v>
       </c>
       <c r="C38">
-        <v>36.69792899090249</v>
+        <v>21.58910578274669</v>
       </c>
       <c r="D38">
-        <v>0.01149940654290015</v>
+        <v>0.00676501129954842</v>
       </c>
       <c r="E38">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="F38">
-        <v>2.399056171670029</v>
+        <v>1.411346059385948</v>
       </c>
       <c r="G38">
-        <v>11.5250342333985</v>
+        <v>6.780087870252815</v>
       </c>
       <c r="H38">
-        <v>0.245032334426458</v>
+        <v>0.1441506137699917</v>
       </c>
       <c r="I38">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="J38">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K38">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L38">
-        <v>0.7668374127407758</v>
+        <v>0.4511244769679648</v>
       </c>
       <c r="M38">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="N38">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O38">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P38">
-        <v>72.27300385844585</v>
+        <v>42.5176452307064</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.343627513083492</v>
+        <v>0.7904456003432646</v>
       </c>
       <c r="C39">
-        <v>22.97961799588058</v>
+        <v>13.5187302772089</v>
       </c>
       <c r="D39">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E39">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F39">
-        <v>1.853816132654114</v>
+        <v>1.090585591343688</v>
       </c>
       <c r="G39">
-        <v>8.905708271262474</v>
+        <v>5.239158808831721</v>
       </c>
       <c r="H39">
-        <v>0.1696377699875478</v>
+        <v>0.09979657876384039</v>
       </c>
       <c r="I39">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="J39">
-        <v>0.6357815732024655</v>
+        <v>0.3740253473701972</v>
       </c>
       <c r="K39">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="L39">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M39">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="N39">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O39">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P39">
-        <v>55.73794889805701</v>
+        <v>32.79020119014868</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.008566747856123</v>
+        <v>0.5933319619705104</v>
       </c>
       <c r="C40">
-        <v>17.24918428909928</v>
+        <v>10.14756076223741</v>
       </c>
       <c r="D40">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E40">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F40">
-        <v>0.9814320702286485</v>
+        <v>0.5773688424760699</v>
       </c>
       <c r="G40">
-        <v>4.714786731844839</v>
+        <v>2.773672310557971</v>
       </c>
       <c r="H40">
-        <v>0.05654592332918261</v>
+        <v>0.03326552625461347</v>
       </c>
       <c r="I40">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="J40">
-        <v>0.2600924617646449</v>
+        <v>0.1530103693787171</v>
       </c>
       <c r="K40">
-        <v>1.309921395215036</v>
+        <v>0.7706165537404369</v>
       </c>
       <c r="L40">
-        <v>0.8626920893333727</v>
+        <v>0.5075150365889606</v>
       </c>
       <c r="M40">
-        <v>5.254486848827923</v>
+        <v>3.091173685619135</v>
       </c>
       <c r="N40">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O40">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P40">
-        <v>37.44506456220385</v>
+        <v>22.0286398198548</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.6430459130626288</v>
+        <v>0.3782989019275069</v>
       </c>
       <c r="C41">
-        <v>10.99780206351967</v>
+        <v>6.469921291359421</v>
       </c>
       <c r="D41">
-        <v>0.01194169140993477</v>
+        <v>0.007025204041838744</v>
       </c>
       <c r="E41">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="H41">
-        <v>0.01884864110972754</v>
+        <v>0.01108850875153783</v>
       </c>
       <c r="I41">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="J41">
-        <v>0.5490840859475837</v>
+        <v>0.3230218909106249</v>
       </c>
       <c r="K41">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="L41">
-        <v>0.8626920893333727</v>
+        <v>0.5075150365889606</v>
       </c>
       <c r="M41">
-        <v>5.254486848827923</v>
+        <v>3.091173685619135</v>
       </c>
       <c r="N41">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P41">
-        <v>26.25750065603643</v>
+        <v>15.44708311453328</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3858275478375772</v>
+        <v>0.2269793411565041</v>
       </c>
       <c r="C42">
-        <v>6.598681238111804</v>
+        <v>3.881952774815653</v>
       </c>
       <c r="D42">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E42">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F42">
-        <v>0.9814320702286485</v>
+        <v>0.5773688424760699</v>
       </c>
       <c r="G42">
-        <v>4.714786731844839</v>
+        <v>2.773672310557971</v>
       </c>
       <c r="J42">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K42">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L42">
-        <v>1.437820148888954</v>
+        <v>0.8458583943149337</v>
       </c>
       <c r="M42">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="P42">
-        <v>28.8474504094338</v>
+        <v>16.97073038116667</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4772077565359509</v>
+        <v>0.2807376061672551</v>
       </c>
       <c r="C43">
-        <v>8.161526794506704</v>
+        <v>4.801362642535147</v>
       </c>
       <c r="D43">
-        <v>0.00663427300551932</v>
+        <v>0.003902891134354856</v>
       </c>
       <c r="E43">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="F43">
-        <v>0.7633360546222825</v>
+        <v>0.4490646552591654</v>
       </c>
       <c r="G43">
-        <v>3.66705634699043</v>
+        <v>2.157300685989533</v>
       </c>
       <c r="H43">
-        <v>0.07539456443891014</v>
+        <v>0.0443540350061513</v>
       </c>
       <c r="I43">
-        <v>2.124913063439322</v>
+        <v>1.250069804132663</v>
       </c>
       <c r="J43">
-        <v>0.4045882738561143</v>
+        <v>0.238016130144671</v>
       </c>
       <c r="K43">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="L43">
-        <v>1.821238855259343</v>
+        <v>1.071420632798916</v>
       </c>
       <c r="M43">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="P43">
-        <v>33.03198242871348</v>
+        <v>19.43245797451165</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.7885773565452234</v>
+        <v>0.4639139165742581</v>
       </c>
       <c r="C44">
-        <v>13.48677832000045</v>
+        <v>7.934166636246027</v>
       </c>
       <c r="D44">
-        <v>0.005749703271450076</v>
+        <v>0.00338250564977421</v>
       </c>
       <c r="E44">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="F44">
-        <v>1.526672109244565</v>
+        <v>0.8981293105183309</v>
       </c>
       <c r="G44">
-        <v>7.334112693980861</v>
+        <v>4.314601371979065</v>
       </c>
       <c r="H44">
-        <v>0.03769728221945507</v>
+        <v>0.02217701750307565</v>
       </c>
       <c r="I44">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="J44">
-        <v>0.6646807356207592</v>
+        <v>0.3910264995233881</v>
       </c>
       <c r="K44">
-        <v>3.347576898882868</v>
+        <v>1.96935341511445</v>
       </c>
       <c r="L44">
-        <v>2.20465756162973</v>
+        <v>1.296982871282899</v>
       </c>
       <c r="M44">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="P44">
-        <v>45.96676757418828</v>
+        <v>27.04189132569567</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.786990747879305</v>
+        <v>1.051272737988019</v>
       </c>
       <c r="C45">
-        <v>30.56231310283363</v>
+        <v>17.9795707465146</v>
       </c>
       <c r="D45">
-        <v>0.00663427300551932</v>
+        <v>0.003902891134354856</v>
       </c>
       <c r="E45">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="F45">
-        <v>3.598584257505045</v>
+        <v>2.117019089078924</v>
       </c>
       <c r="G45">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="H45">
-        <v>0.4712160277431883</v>
+        <v>0.2772127187884454</v>
       </c>
       <c r="I45">
-        <v>13.28070664649576</v>
+        <v>7.812936275829149</v>
       </c>
       <c r="J45">
-        <v>1.676151420261045</v>
+        <v>0.9860668248850655</v>
       </c>
       <c r="K45">
-        <v>8.44171565805245</v>
+        <v>4.966195568549482</v>
       </c>
       <c r="L45">
-        <v>3.450768357333491</v>
+        <v>2.030060146355842</v>
       </c>
       <c r="M45">
-        <v>21.01794739531169</v>
+        <v>12.36469474247654</v>
       </c>
       <c r="N45">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O45">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P45">
-        <v>104.2838603832494</v>
+        <v>61.34938278956519</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>3.296456417489474</v>
+        <v>1.939279634091534</v>
       </c>
       <c r="C46">
-        <v>56.37820636772719</v>
+        <v>33.16685967254777</v>
       </c>
       <c r="D46">
-        <v>0.00707655787255394</v>
+        <v>0.004163083876645182</v>
       </c>
       <c r="E46">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="F46">
-        <v>6.433832460387806</v>
+        <v>3.784973522898682</v>
       </c>
       <c r="G46">
-        <v>30.90804635320506</v>
+        <v>18.18296292476892</v>
       </c>
       <c r="H46">
-        <v>1.696377699875478</v>
+        <v>0.997965787638404</v>
       </c>
       <c r="I46">
-        <v>47.81054392738476</v>
+        <v>28.12657059298493</v>
       </c>
       <c r="J46">
-        <v>2.889916241829388</v>
+        <v>1.700115215319079</v>
       </c>
       <c r="K46">
-        <v>14.55468216905595</v>
+        <v>8.562406152671519</v>
       </c>
       <c r="L46">
-        <v>5.655425918963222</v>
+        <v>3.32704301763874</v>
       </c>
       <c r="M46">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="N46">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O46">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P46">
-        <v>207.8508680610537</v>
+        <v>122.2770467161303</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>4.640083930572967</v>
+        <v>2.729725234434798</v>
       </c>
       <c r="C47">
-        <v>79.35782436360773</v>
+        <v>46.68558994975668</v>
       </c>
       <c r="D47">
-        <v>0.004422848670346211</v>
+        <v>0.002601927422903238</v>
       </c>
       <c r="E47">
-        <v>1.599750248428815</v>
+        <v>0.9411206105899557</v>
       </c>
       <c r="F47">
-        <v>5.23430437455279</v>
+        <v>3.079300493205706</v>
       </c>
       <c r="G47">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="H47">
-        <v>1.338253518790655</v>
+        <v>0.7872841213591855</v>
       </c>
       <c r="I47">
-        <v>37.71720687604797</v>
+        <v>22.18873902335478</v>
       </c>
       <c r="J47">
-        <v>3.352302840522089</v>
+        <v>1.972133649770131</v>
       </c>
       <c r="K47">
-        <v>16.8834313161049</v>
+        <v>9.932391137098964</v>
       </c>
       <c r="L47">
-        <v>5.655425918963222</v>
+        <v>3.32704301763874</v>
       </c>
       <c r="M47">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="N47">
-        <v>0.144562648102776</v>
+        <v>0.08504507987081551</v>
       </c>
       <c r="O47">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="P47">
-        <v>217.8038621188934</v>
+        <v>128.132315595827</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>5.672341843647186</v>
+        <v>3.33699452437106</v>
       </c>
       <c r="C48">
-        <v>97.01219083399459</v>
+        <v>57.07151623325471</v>
       </c>
       <c r="D48">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E48">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F48">
-        <v>8.505744608648284</v>
+        <v>5.003863301459273</v>
       </c>
       <c r="G48">
-        <v>40.86148500932193</v>
+        <v>24.03849335816908</v>
       </c>
       <c r="H48">
-        <v>0.7162483621696465</v>
+        <v>0.4213633325584373</v>
       </c>
       <c r="I48">
-        <v>20.18667410267356</v>
+        <v>11.8756631392603</v>
       </c>
       <c r="J48">
-        <v>4.016983576142849</v>
+        <v>2.363160149293519</v>
       </c>
       <c r="K48">
-        <v>20.23100821498777</v>
+        <v>11.90174455221341</v>
       </c>
       <c r="L48">
-        <v>8.147647510370742</v>
+        <v>4.793197567784625</v>
       </c>
       <c r="M48">
-        <v>49.6257091278193</v>
+        <v>29.19441814195851</v>
       </c>
       <c r="N48">
-        <v>0.1807033101284701</v>
+        <v>0.1063063498385194</v>
       </c>
       <c r="O48">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="P48">
-        <v>261.5417717442673</v>
+        <v>153.8629871509574</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>4.271178643605461</v>
+        <v>2.512701127539545</v>
       </c>
       <c r="C49">
-        <v>73.04855896927273</v>
+        <v>42.9738982615557</v>
       </c>
       <c r="D49">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E49">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F49">
-        <v>7.960504569632371</v>
+        <v>4.683102833417013</v>
       </c>
       <c r="G49">
-        <v>38.24215904718593</v>
+        <v>22.49756429674799</v>
       </c>
       <c r="H49">
-        <v>1.52673992988793</v>
+        <v>0.8981692088745635</v>
       </c>
       <c r="I49">
-        <v>43.02948953464629</v>
+        <v>25.31391353368644</v>
       </c>
       <c r="J49">
-        <v>4.566067662090433</v>
+        <v>2.686182040204143</v>
       </c>
       <c r="K49">
-        <v>22.9963978271084</v>
+        <v>13.528601721221</v>
       </c>
       <c r="L49">
-        <v>13.03623601659319</v>
+        <v>7.6691161084554</v>
       </c>
       <c r="M49">
-        <v>79.40113460451084</v>
+        <v>46.71106902713363</v>
       </c>
       <c r="N49">
-        <v>0.3614066202569401</v>
+        <v>0.2126126996770387</v>
       </c>
       <c r="O49">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="P49">
-        <v>296.3974246222189</v>
+        <v>174.3682962460659</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>2.222008287111039</v>
+        <v>3.777048626199441</v>
       </c>
       <c r="C2">
-        <v>38.00227453240586</v>
+        <v>64.59761633098924</v>
       </c>
       <c r="D2">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E2">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F2">
-        <v>2.117019089078924</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G2">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H2">
-        <v>0.4546288588130507</v>
+        <v>0.7727942854988289</v>
       </c>
       <c r="I2">
-        <v>12.8132154923598</v>
+        <v>21.78035890025306</v>
       </c>
       <c r="J2">
-        <v>3.349226974178584</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K2">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L2">
-        <v>10.15030073177921</v>
+        <v>17.25384178666745</v>
       </c>
       <c r="M2">
-        <v>61.82347371238275</v>
+        <v>105.0897369765585</v>
       </c>
       <c r="N2">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O2">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P2">
-        <v>161.1182391480834</v>
+        <v>273.8745068413555</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.666011735162798</v>
+        <v>4.531781461004525</v>
       </c>
       <c r="C3">
-        <v>45.59591899542244</v>
+        <v>77.50556296343606</v>
       </c>
       <c r="D3">
-        <v>0.01379021534138716</v>
+        <v>0.02344109795283492</v>
       </c>
       <c r="E3">
-        <v>4.987939236126766</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="F3">
-        <v>3.977429803724037</v>
+        <v>6.76097648379736</v>
       </c>
       <c r="G3">
-        <v>19.10752036162157</v>
+        <v>32.47964193048667</v>
       </c>
       <c r="H3">
-        <v>0.1995931575276808</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I3">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J3">
-        <v>2.720184344510526</v>
+        <v>4.623865986927019</v>
       </c>
       <c r="K3">
-        <v>13.69984984427443</v>
+        <v>23.28749147048952</v>
       </c>
       <c r="L3">
-        <v>3.32704301763874</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M3">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N3">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O3">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P3">
-        <v>124.6858922317037</v>
+        <v>211.945509245832</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.865116420387802</v>
+        <v>4.87022667840591</v>
       </c>
       <c r="C4">
-        <v>49.00114072771688</v>
+        <v>83.29387983897271</v>
       </c>
       <c r="D4">
-        <v>0.01431060082596781</v>
+        <v>0.02432566768690417</v>
       </c>
       <c r="E4">
-        <v>5.176163358244758</v>
+        <v>8.798626366358482</v>
       </c>
       <c r="F4">
-        <v>3.656669335681777</v>
+        <v>6.215736444781442</v>
       </c>
       <c r="G4">
-        <v>17.56659130020047</v>
+        <v>29.86031596835065</v>
       </c>
       <c r="H4">
-        <v>0.1441506137699917</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I4">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J4">
-        <v>2.907197018195624</v>
+        <v>4.941756773528253</v>
       </c>
       <c r="K4">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="L4">
-        <v>3.101480779154758</v>
+        <v>5.272007212592832</v>
       </c>
       <c r="M4">
-        <v>18.89050585656138</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="N4">
-        <v>0.1381982547900752</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O4">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P4">
-        <v>124.3500656423469</v>
+        <v>211.3746592785619</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.817331295933801</v>
+        <v>4.788999826229573</v>
       </c>
       <c r="C5">
-        <v>48.18388751196621</v>
+        <v>81.9046837888439</v>
       </c>
       <c r="D5">
-        <v>0.01274944437222587</v>
+        <v>0.02167195848469644</v>
       </c>
       <c r="E5">
-        <v>4.611490991890784</v>
+        <v>7.838776217301193</v>
       </c>
       <c r="F5">
-        <v>3.271756774031063</v>
+        <v>5.561448397962342</v>
       </c>
       <c r="G5">
-        <v>15.71747642649516</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="H5">
-        <v>0.2106816662792187</v>
+        <v>0.3581241810848232</v>
       </c>
       <c r="I5">
-        <v>5.937831569630152</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="J5">
-        <v>3.434232734944538</v>
+        <v>5.837630808495363</v>
       </c>
       <c r="K5">
-        <v>17.29606042839648</v>
+        <v>29.40045798149302</v>
       </c>
       <c r="L5">
-        <v>3.214261898396749</v>
+        <v>5.463716565778026</v>
       </c>
       <c r="M5">
-        <v>19.57743334225453</v>
+        <v>33.27841670924352</v>
       </c>
       <c r="N5">
-        <v>0.1381982547900752</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O5">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P5">
-        <v>126.607492331699</v>
+        <v>215.2119133631759</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.9089194511373</v>
+        <v>4.944684626234213</v>
       </c>
       <c r="C6">
-        <v>49.75028950882168</v>
+        <v>84.56730955159078</v>
       </c>
       <c r="D6">
-        <v>0.01379021534138716</v>
+        <v>0.02344109795283492</v>
       </c>
       <c r="E6">
-        <v>4.987939236126766</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="F6">
-        <v>4.105733990940942</v>
+        <v>6.979072499403722</v>
       </c>
       <c r="G6">
-        <v>19.72389198619002</v>
+        <v>33.52737231534108</v>
       </c>
       <c r="H6">
-        <v>0.2106816662792187</v>
+        <v>0.3581241810848232</v>
       </c>
       <c r="I6">
-        <v>5.937831569630152</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="J6">
-        <v>2.992202778961578</v>
+        <v>5.086252585619724</v>
       </c>
       <c r="K6">
-        <v>15.06983482870187</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="L6">
-        <v>2.593965742565797</v>
+        <v>4.409315123259461</v>
       </c>
       <c r="M6">
-        <v>15.79933217094226</v>
+        <v>26.85626611623161</v>
       </c>
       <c r="N6">
-        <v>0.09567571485466744</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O6">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P6">
-        <v>125.7021580859446</v>
+        <v>213.6729940490521</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.978606090966054</v>
+        <v>5.063140452324699</v>
       </c>
       <c r="C7">
-        <v>50.94211711512472</v>
+        <v>86.59322045802858</v>
       </c>
       <c r="D7">
-        <v>0.01248925162993554</v>
+        <v>0.02122967361766182</v>
       </c>
       <c r="E7">
-        <v>4.517378930831788</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="F7">
-        <v>4.490646552591655</v>
+        <v>7.63336054622282</v>
       </c>
       <c r="G7">
-        <v>21.57300685989533</v>
+        <v>36.6705634699043</v>
       </c>
       <c r="H7">
-        <v>0.3215667537945969</v>
+        <v>0.5466105921820986</v>
       </c>
       <c r="I7">
-        <v>9.063006079961811</v>
+        <v>15.40561970993508</v>
       </c>
       <c r="J7">
-        <v>2.567173975131808</v>
+        <v>4.363773525162375</v>
       </c>
       <c r="K7">
-        <v>12.929233290534</v>
+        <v>21.97757007527449</v>
       </c>
       <c r="L7">
-        <v>2.199231825218828</v>
+        <v>3.73833238711128</v>
       </c>
       <c r="M7">
-        <v>13.39508597101626</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="N7">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O7">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P7">
-        <v>127.4904792705055</v>
+        <v>216.7128459310319</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>3.285227306212558</v>
+        <v>5.584346087122829</v>
       </c>
       <c r="C8">
-        <v>56.18615858285813</v>
+        <v>95.50722844635507</v>
       </c>
       <c r="D8">
-        <v>0.01353002259909684</v>
+        <v>0.0229988130858003</v>
       </c>
       <c r="E8">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="F8">
-        <v>3.913277710115584</v>
+        <v>6.651928475994173</v>
       </c>
       <c r="G8">
-        <v>18.79933454933735</v>
+        <v>31.95577673805947</v>
       </c>
       <c r="H8">
-        <v>0.3880978063038238</v>
+        <v>0.6597024388404639</v>
       </c>
       <c r="I8">
-        <v>10.93811078616081</v>
+        <v>18.59298930509407</v>
       </c>
       <c r="J8">
-        <v>2.533171670825427</v>
+        <v>4.305975200325787</v>
       </c>
       <c r="K8">
-        <v>12.75798516748057</v>
+        <v>21.68647643189336</v>
       </c>
       <c r="L8">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M8">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N8">
-        <v>0.2551352396124466</v>
+        <v>0.4336879443083282</v>
       </c>
       <c r="O8">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="P8">
-        <v>127.9923981794652</v>
+        <v>217.5660255238114</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.647597833322063</v>
+        <v>6.200316382793344</v>
       </c>
       <c r="C9">
-        <v>62.38366213563403</v>
+        <v>106.0419651598318</v>
       </c>
       <c r="D9">
-        <v>0.008846553237871009</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E9">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F9">
-        <v>3.015148399597254</v>
+        <v>5.125256366749608</v>
       </c>
       <c r="G9">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="H9">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I9">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J9">
-        <v>2.465167062212664</v>
+        <v>4.190378550652613</v>
       </c>
       <c r="K9">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="L9">
-        <v>1.184201752040908</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M9">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N9">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O9">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P9">
-        <v>128.5639462991384</v>
+        <v>218.5375633226307</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.542072350152813</v>
+        <v>6.020940417570611</v>
       </c>
       <c r="C10">
-        <v>60.57889461751795</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="D10">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E10">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F10">
-        <v>2.501931650729637</v>
+        <v>4.252872304324142</v>
       </c>
       <c r="G10">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="H10">
-        <v>0.7983726301107231</v>
+        <v>1.357102159900383</v>
       </c>
       <c r="I10">
-        <v>22.50125647438794</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="J10">
-        <v>1.326089867948881</v>
+        <v>2.254134668626922</v>
       </c>
       <c r="K10">
-        <v>6.678676799083785</v>
+        <v>11.35265209186364</v>
       </c>
       <c r="L10">
-        <v>1.015030073177921</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M10">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N10">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O10">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P10">
-        <v>119.3987464237614</v>
+        <v>202.9582309686799</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.496772752721545</v>
+        <v>4.244103026213349</v>
       </c>
       <c r="C11">
-        <v>42.70148052297219</v>
+        <v>72.58549361922985</v>
       </c>
       <c r="D11">
-        <v>0.004943662103516153</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E11">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F11">
-        <v>2.181171182687376</v>
+        <v>3.707632265308228</v>
       </c>
       <c r="G11">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="H11">
-        <v>0.620956490086118</v>
+        <v>1.055523902144742</v>
       </c>
       <c r="I11">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="J11">
-        <v>0.6800460861276314</v>
+        <v>1.155966496731755</v>
       </c>
       <c r="K11">
-        <v>3.424962461068608</v>
+        <v>5.82187286762238</v>
       </c>
       <c r="L11">
-        <v>0.6202961558309515</v>
+        <v>1.054401442518566</v>
       </c>
       <c r="M11">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="N11">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O11">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P11">
-        <v>86.81206950065372</v>
+        <v>147.5662398502066</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>2.116482803941788</v>
+        <v>3.597672660976706</v>
       </c>
       <c r="C12">
-        <v>36.1975070142898</v>
+        <v>61.5298083869548</v>
       </c>
       <c r="D12">
-        <v>0.01040770969161295</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E12">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F12">
-        <v>1.475498152994401</v>
+        <v>2.508104179473213</v>
       </c>
       <c r="G12">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="H12">
-        <v>0.5211599113222776</v>
+        <v>0.8858861321571943</v>
       </c>
       <c r="I12">
-        <v>14.6883201985588</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="J12">
-        <v>0.6460437818212498</v>
+        <v>1.098168171895167</v>
       </c>
       <c r="K12">
-        <v>3.253714338015177</v>
+        <v>5.530779224241261</v>
       </c>
       <c r="L12">
-        <v>0.958639513556925</v>
+        <v>1.629529502074148</v>
       </c>
       <c r="M12">
-        <v>5.838883628391703</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="N12">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O12">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P12">
-        <v>76.7380515041812</v>
+        <v>130.442066167058</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,49 +1030,49 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.698362964969282</v>
+        <v>2.886937704433802</v>
       </c>
       <c r="C13">
-        <v>29.04654137647151</v>
+        <v>49.37434294832779</v>
       </c>
       <c r="D13">
-        <v>0.007805782268709712</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E13">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F13">
-        <v>1.15473768495214</v>
+        <v>1.962864140457297</v>
       </c>
       <c r="G13">
-        <v>5.547344621115943</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="H13">
-        <v>0.4435403500615129</v>
+        <v>0.7539456443891015</v>
       </c>
       <c r="I13">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="J13">
-        <v>0.3740253473701972</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K13">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L13">
-        <v>0.6202961558309515</v>
+        <v>1.054401442518566</v>
       </c>
       <c r="M13">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="N13">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O13">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P13">
-        <v>60.235821334438</v>
+        <v>102.3909890610882</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1080,49 +1080,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.288207313405773</v>
+        <v>2.189740556586952</v>
       </c>
       <c r="C14">
-        <v>22.03178460794498</v>
+        <v>37.45041018472227</v>
       </c>
       <c r="D14">
-        <v>0.008846553237871009</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E14">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F14">
-        <v>0.962281404126783</v>
+        <v>1.635720117047748</v>
       </c>
       <c r="G14">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="H14">
-        <v>0.1441506137699917</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I14">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J14">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K14">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L14">
-        <v>0.3947339173469691</v>
+        <v>0.6709827361481787</v>
       </c>
       <c r="M14">
-        <v>2.404246199925996</v>
+        <v>4.08682310464394</v>
       </c>
       <c r="N14">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O14">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P14">
-        <v>40.73496605167796</v>
+        <v>69.24274245790984</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1130,49 +1130,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.8063739751612639</v>
+        <v>1.370703130475603</v>
       </c>
       <c r="C15">
-        <v>13.79114801579245</v>
+        <v>23.44268334592352</v>
       </c>
       <c r="D15">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E15">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F15">
-        <v>0.7698251233014266</v>
+        <v>1.308576093638198</v>
       </c>
       <c r="G15">
-        <v>3.698229747410627</v>
+        <v>6.286382309126453</v>
       </c>
       <c r="H15">
-        <v>0.09979657876384039</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I15">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J15">
-        <v>0.3910264995233881</v>
+        <v>0.6646807356207592</v>
       </c>
       <c r="K15">
-        <v>1.96935341511445</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="L15">
-        <v>0.6766867154519475</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M15">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N15">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O15">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P15">
-        <v>31.39148995430565</v>
+        <v>53.36036984831396</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1180,49 +1180,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.6052782430840109</v>
+        <v>1.028873460900206</v>
       </c>
       <c r="C16">
-        <v>10.35187406617507</v>
+        <v>17.59648330163148</v>
       </c>
       <c r="D16">
-        <v>0.008065975011000039</v>
+        <v>0.01371083087807326</v>
       </c>
       <c r="E16">
-        <v>2.917473892828863</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="F16">
-        <v>0.3849125616507133</v>
+        <v>0.6542880468190988</v>
       </c>
       <c r="G16">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="H16">
-        <v>0.03326552625461347</v>
+        <v>0.05654592332918261</v>
       </c>
       <c r="I16">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="J16">
-        <v>0.1530103693787171</v>
+        <v>0.2600924617646449</v>
       </c>
       <c r="K16">
-        <v>0.7706165537404369</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="L16">
-        <v>0.4511244769679648</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M16">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N16">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O16">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P16">
-        <v>21.38863716136939</v>
+        <v>36.3571653063738</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1230,43 +1230,43 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3862630893365071</v>
+        <v>0.6565837217586841</v>
       </c>
       <c r="C17">
-        <v>6.6061301606512</v>
+        <v>11.22933473854114</v>
       </c>
       <c r="D17">
-        <v>0.009106745980161337</v>
+        <v>0.01547997034621174</v>
       </c>
       <c r="E17">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="H17">
-        <v>0.01108850875153783</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I17">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J17">
-        <v>0.3230218909106249</v>
+        <v>0.5490840859475837</v>
       </c>
       <c r="K17">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="L17">
-        <v>0.4511244769679648</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M17">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N17">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P17">
-        <v>15.94637989917679</v>
+        <v>27.10622306874869</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,37 +1274,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2309614348610042</v>
+        <v>0.3925964521856046</v>
       </c>
       <c r="C18">
-        <v>3.950057209461539</v>
+        <v>6.714447575622538</v>
       </c>
       <c r="D18">
-        <v>0.007545589526419391</v>
+        <v>0.01282626114400402</v>
       </c>
       <c r="E18">
-        <v>2.729249770710871</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="F18">
-        <v>0.3849125616507133</v>
+        <v>0.6542880468190988</v>
       </c>
       <c r="G18">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="J18">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K18">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L18">
-        <v>0.7894678346939381</v>
+        <v>1.341965472296357</v>
       </c>
       <c r="M18">
-        <v>4.808492399851992</v>
+        <v>8.173646209287881</v>
       </c>
       <c r="P18">
-        <v>16.18655466598047</v>
+        <v>27.51448066988622</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1312,43 +1312,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2867107467240051</v>
+        <v>0.4873611130579926</v>
       </c>
       <c r="C19">
-        <v>4.903519294503984</v>
+        <v>8.335176300772808</v>
       </c>
       <c r="D19">
-        <v>0.004943662103516153</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E19">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F19">
-        <v>0.3207604680422612</v>
+        <v>0.5452400390159158</v>
       </c>
       <c r="G19">
-        <v>1.540929061421095</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="H19">
-        <v>0.0443540350061513</v>
+        <v>0.07539456443891014</v>
       </c>
       <c r="I19">
-        <v>1.250069804132663</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="J19">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K19">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L19">
-        <v>0.958639513556925</v>
+        <v>1.629529502074148</v>
       </c>
       <c r="M19">
-        <v>5.838883628391703</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="P19">
-        <v>18.3736923655219</v>
+        <v>31.23225503251133</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,43 +1356,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4738691508355083</v>
+        <v>0.8054996174152924</v>
       </c>
       <c r="C20">
-        <v>8.104427722860747</v>
+        <v>13.77619416377727</v>
       </c>
       <c r="D20">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E20">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F20">
-        <v>0.6415209360845224</v>
+        <v>1.090480078031832</v>
       </c>
       <c r="G20">
-        <v>3.08185812284219</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="H20">
-        <v>0.02217701750307565</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I20">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J20">
-        <v>0.4080276516765789</v>
+        <v>0.6935798980390531</v>
       </c>
       <c r="K20">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="L20">
-        <v>1.184201752040908</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M20">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="P20">
-        <v>25.41316164695088</v>
+        <v>43.19819500349297</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1400,49 +1400,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.073174253362769</v>
+        <v>1.824219721793457</v>
       </c>
       <c r="C21">
-        <v>18.35414513706699</v>
+        <v>31.19902795914266</v>
       </c>
       <c r="D21">
-        <v>0.004943662103516153</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E21">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F21">
-        <v>1.475498152994401</v>
+        <v>2.508104179473213</v>
       </c>
       <c r="G21">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="H21">
-        <v>0.2883012275399834</v>
+        <v>0.4900646688529159</v>
       </c>
       <c r="I21">
-        <v>8.125453726862313</v>
+        <v>13.81193491235559</v>
       </c>
       <c r="J21">
-        <v>1.020069129191447</v>
+        <v>1.733949745097632</v>
       </c>
       <c r="K21">
-        <v>5.137443691602911</v>
+        <v>8.732809301433569</v>
       </c>
       <c r="L21">
-        <v>1.860888467492854</v>
+        <v>3.163204327555701</v>
       </c>
       <c r="M21">
-        <v>11.33430351393683</v>
+        <v>19.26645177903572</v>
       </c>
       <c r="N21">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O21">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P21">
-        <v>57.72926213151258</v>
+        <v>98.13025067914189</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1450,49 +1450,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.979100571136535</v>
+        <v>3.364145460969753</v>
       </c>
       <c r="C22">
-        <v>33.84790401900666</v>
+        <v>57.53586974283451</v>
       </c>
       <c r="D22">
-        <v>0.0054640475880968</v>
+        <v>0.009287982207727049</v>
       </c>
       <c r="E22">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="F22">
-        <v>2.63023583794654</v>
+        <v>4.470968319930508</v>
       </c>
       <c r="G22">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="H22">
-        <v>1.031231313893018</v>
+        <v>1.752923623204661</v>
       </c>
       <c r="I22">
-        <v>29.06412294608443</v>
+        <v>49.40422872496426</v>
       </c>
       <c r="J22">
-        <v>1.751118671778651</v>
+        <v>2.976613729084269</v>
       </c>
       <c r="K22">
-        <v>8.819278337251665</v>
+        <v>14.99132263412763</v>
       </c>
       <c r="L22">
-        <v>3.045090219533761</v>
+        <v>5.176152536000234</v>
       </c>
       <c r="M22">
-        <v>18.54704211371482</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="N22">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O22">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P22">
-        <v>116.0471129706285</v>
+        <v>197.2610053538563</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1500,49 +1500,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.785474546297799</v>
+        <v>4.734848591445353</v>
       </c>
       <c r="C23">
-        <v>47.63905203479909</v>
+        <v>80.97855308875803</v>
       </c>
       <c r="D23">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E23">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F23">
-        <v>2.117019089078924</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G23">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H23">
-        <v>0.8094611388622611</v>
+        <v>1.37595080101011</v>
       </c>
       <c r="I23">
-        <v>22.81377392542111</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="J23">
-        <v>2.023137106229703</v>
+        <v>3.43900032777697</v>
       </c>
       <c r="K23">
-        <v>10.18926332167911</v>
+        <v>17.32007178117658</v>
       </c>
       <c r="L23">
-        <v>3.045090219533761</v>
+        <v>5.176152536000234</v>
       </c>
       <c r="M23">
-        <v>18.54704211371482</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="N23">
-        <v>0.07441444488696355</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O23">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P23">
-        <v>122.6167528873169</v>
+        <v>208.4283126793454</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1550,49 +1550,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>3.404690117347558</v>
+        <v>5.787413217563658</v>
       </c>
       <c r="C24">
-        <v>58.2292916222348</v>
+        <v>98.98021857167707</v>
       </c>
       <c r="D24">
-        <v>0.007285396784129066</v>
+        <v>0.01238397627696939</v>
       </c>
       <c r="E24">
-        <v>2.635137709651877</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="F24">
-        <v>3.46421305485642</v>
+        <v>5.888592421371889</v>
       </c>
       <c r="G24">
-        <v>16.64203386334783</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="H24">
-        <v>0.4324518413099753</v>
+        <v>0.735097003279374</v>
       </c>
       <c r="I24">
-        <v>12.18818059029347</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="J24">
-        <v>2.431164757906283</v>
+        <v>4.132580225816026</v>
       </c>
       <c r="K24">
-        <v>12.24424079832027</v>
+        <v>20.81319550175001</v>
       </c>
       <c r="L24">
-        <v>4.398463650437655</v>
+        <v>7.47666477422256</v>
       </c>
       <c r="M24">
-        <v>26.79017194203252</v>
+        <v>45.53888602317533</v>
       </c>
       <c r="N24">
-        <v>0.09567571485466744</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O24">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P24">
-        <v>144.4750702848284</v>
+        <v>245.583857137122</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1600,49 +1600,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.564468345698045</v>
+        <v>4.359174400129822</v>
       </c>
       <c r="C25">
-        <v>43.85925591195228</v>
+        <v>74.55352135691237</v>
       </c>
       <c r="D25">
-        <v>0.004683469361225829</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E25">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F25">
-        <v>3.271756774031063</v>
+        <v>5.561448397962342</v>
       </c>
       <c r="G25">
-        <v>15.71747642649516</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="H25">
-        <v>0.9203462263776395</v>
+        <v>1.564437212107385</v>
       </c>
       <c r="I25">
-        <v>25.93894843575277</v>
+        <v>44.09194606636594</v>
       </c>
       <c r="J25">
-        <v>2.754186648816907</v>
+        <v>4.681664311763608</v>
       </c>
       <c r="K25">
-        <v>13.87109796732786</v>
+        <v>23.57858511387064</v>
       </c>
       <c r="L25">
-        <v>7.048819952624449</v>
+        <v>11.98183457407462</v>
       </c>
       <c r="M25">
-        <v>42.93296785582133</v>
+        <v>72.97898401149895</v>
       </c>
       <c r="N25">
-        <v>0.1913514297093349</v>
+        <v>0.3252659582312463</v>
       </c>
       <c r="O25">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="P25">
-        <v>163.7935149939318</v>
+        <v>278.4220357668234</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1650,49 +1650,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.17820525636154</v>
+        <v>3.702590678371136</v>
       </c>
       <c r="C26">
-        <v>37.25312575130111</v>
+        <v>63.32418661837122</v>
       </c>
       <c r="D26">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E26">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F26">
-        <v>3.079300493205706</v>
+        <v>5.23430437455279</v>
       </c>
       <c r="G26">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H26">
-        <v>0.4435403500615129</v>
+        <v>0.7539456443891015</v>
       </c>
       <c r="I26">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="J26">
-        <v>3.264221213412631</v>
+        <v>5.548639184312425</v>
       </c>
       <c r="K26">
-        <v>16.43981981312932</v>
+        <v>27.94498976458743</v>
       </c>
       <c r="L26">
-        <v>11.05254968571514</v>
+        <v>18.787516612149</v>
       </c>
       <c r="M26">
-        <v>67.31889359792785</v>
+        <v>114.4310469300304</v>
       </c>
       <c r="N26">
-        <v>0.07441444488696355</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O26">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P26">
-        <v>171.1780697936102</v>
+        <v>290.9745643613423</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1700,49 +1700,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.612253470152047</v>
+        <v>4.440401252306152</v>
       </c>
       <c r="C27">
-        <v>44.67650912770295</v>
+        <v>75.94271740704114</v>
       </c>
       <c r="D27">
-        <v>0.01066790243390327</v>
+        <v>0.01813367954841947</v>
       </c>
       <c r="E27">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="F27">
-        <v>5.709536331152248</v>
+        <v>9.705272694483304</v>
       </c>
       <c r="G27">
-        <v>27.42853729329549</v>
+        <v>46.62400212602119</v>
       </c>
       <c r="H27">
-        <v>0.188504648776143</v>
+        <v>0.320426898865368</v>
       </c>
       <c r="I27">
-        <v>5.31279666756382</v>
+        <v>9.030880519617121</v>
       </c>
       <c r="J27">
-        <v>2.652179735897761</v>
+        <v>4.508269337253845</v>
       </c>
       <c r="K27">
-        <v>13.35735359816757</v>
+        <v>22.70530418372728</v>
       </c>
       <c r="L27">
-        <v>3.608995815743718</v>
+        <v>6.134699301926206</v>
       </c>
       <c r="M27">
-        <v>21.98167954218053</v>
+        <v>37.36523981388747</v>
       </c>
       <c r="N27">
-        <v>0.1594595247577791</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O27">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P27">
-        <v>134.0771835369943</v>
+        <v>227.9091598445455</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1750,49 +1750,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.807376061672549</v>
+        <v>4.772077565359505</v>
       </c>
       <c r="C28">
-        <v>48.01362642535149</v>
+        <v>81.61526794506706</v>
       </c>
       <c r="D28">
-        <v>0.0109280951761936</v>
+        <v>0.0185759644154541</v>
       </c>
       <c r="E28">
-        <v>3.952706564477815</v>
+        <v>6.718951043401023</v>
       </c>
       <c r="F28">
-        <v>5.260471675893079</v>
+        <v>8.941936639861016</v>
       </c>
       <c r="G28">
-        <v>25.27123660730595</v>
+        <v>42.95694577903075</v>
       </c>
       <c r="H28">
-        <v>0.1441506137699917</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I28">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J28">
-        <v>2.839192409582861</v>
+        <v>4.826160123855078</v>
       </c>
       <c r="K28">
-        <v>14.29921827496144</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="L28">
-        <v>3.383433577259735</v>
+        <v>5.751280595555816</v>
       </c>
       <c r="M28">
-        <v>20.60782457079425</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="N28">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O28">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P28">
-        <v>133.1538283134852</v>
+        <v>226.3396078322154</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1800,49 +1800,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.761581984070799</v>
+        <v>4.694235165357191</v>
       </c>
       <c r="C29">
-        <v>47.23042542692377</v>
+        <v>80.28395506369364</v>
       </c>
       <c r="D29">
-        <v>0.009887324207032306</v>
+        <v>0.01680682494731561</v>
       </c>
       <c r="E29">
-        <v>3.576258320241832</v>
+        <v>6.079050944029497</v>
       </c>
       <c r="F29">
-        <v>4.683102833417013</v>
+        <v>7.960504569632371</v>
       </c>
       <c r="G29">
-        <v>22.49756429674799</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="H29">
-        <v>0.1995931575276808</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I29">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J29">
-        <v>3.349226974178584</v>
+        <v>5.693134996403896</v>
       </c>
       <c r="K29">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="L29">
-        <v>3.496214696501727</v>
+        <v>5.94298994874101</v>
       </c>
       <c r="M29">
-        <v>21.29475205648738</v>
+        <v>36.19757606970347</v>
       </c>
       <c r="N29">
-        <v>0.1488288897739271</v>
+        <v>0.2529846341798581</v>
       </c>
       <c r="O29">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="P29">
-        <v>134.0927978834724</v>
+        <v>227.9357016654091</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1850,49 +1850,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.851179092422049</v>
+        <v>4.846535513187813</v>
       </c>
       <c r="C30">
-        <v>48.76277520645627</v>
+        <v>82.88869765768513</v>
       </c>
       <c r="D30">
-        <v>0.01066790243390327</v>
+        <v>0.01813367954841947</v>
       </c>
       <c r="E30">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="F30">
-        <v>5.901992611977604</v>
+        <v>10.03241671789285</v>
       </c>
       <c r="G30">
-        <v>28.35309473014814</v>
+        <v>48.19559770330282</v>
       </c>
       <c r="H30">
-        <v>0.1995931575276808</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I30">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J30">
-        <v>2.924198170348814</v>
+        <v>4.970655935946546</v>
       </c>
       <c r="K30">
-        <v>14.72733858259501</v>
+        <v>25.03405333077623</v>
       </c>
       <c r="L30">
-        <v>2.81952798104978</v>
+        <v>4.792733829629849</v>
       </c>
       <c r="M30">
-        <v>17.17318714232854</v>
+        <v>29.19159360459958</v>
       </c>
       <c r="N30">
-        <v>0.1063063498385194</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O30">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P30">
-        <v>134.9938464663098</v>
+        <v>229.4673360574526</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1900,49 +1900,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.918874685398553</v>
+        <v>4.961606887104286</v>
       </c>
       <c r="C31">
-        <v>49.92055059543636</v>
+        <v>84.85672539536759</v>
       </c>
       <c r="D31">
-        <v>0.009627131464741983</v>
+        <v>0.01636454008028099</v>
       </c>
       <c r="E31">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="F31">
-        <v>6.479361454453674</v>
+        <v>11.0138487881215</v>
       </c>
       <c r="G31">
-        <v>31.12676704070611</v>
+        <v>52.91038443514766</v>
       </c>
       <c r="H31">
-        <v>0.310478245043059</v>
+        <v>0.5277619510723709</v>
       </c>
       <c r="I31">
-        <v>8.750488628928645</v>
+        <v>14.87439144407526</v>
       </c>
       <c r="J31">
-        <v>2.499169366519045</v>
+        <v>4.248176875489199</v>
       </c>
       <c r="K31">
-        <v>12.58673704442714</v>
+        <v>21.39538278851225</v>
       </c>
       <c r="L31">
-        <v>2.368403504081816</v>
+        <v>4.025896416889071</v>
       </c>
       <c r="M31">
-        <v>14.42547719955597</v>
+        <v>24.52093862786365</v>
       </c>
       <c r="N31">
-        <v>0.1594595247577791</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O31">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P31">
-        <v>137.5576560557073</v>
+        <v>233.8253906802196</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1950,49 +1950,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>3.219522760088305</v>
+        <v>5.472659165380374</v>
       </c>
       <c r="C32">
-        <v>55.06243541120098</v>
+        <v>93.59708387742796</v>
       </c>
       <c r="D32">
-        <v>0.01040770969161295</v>
+        <v>0.01769139468138484</v>
       </c>
       <c r="E32">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="F32">
-        <v>5.645384237543793</v>
+        <v>9.596224686680117</v>
       </c>
       <c r="G32">
-        <v>27.12035148101126</v>
+        <v>46.100136933594</v>
       </c>
       <c r="H32">
-        <v>0.3770092975522861</v>
+        <v>0.640853797730736</v>
       </c>
       <c r="I32">
-        <v>10.62559333512764</v>
+        <v>18.06176103923424</v>
       </c>
       <c r="J32">
-        <v>2.465167062212664</v>
+        <v>4.190378550652613</v>
       </c>
       <c r="K32">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="L32">
-        <v>1.522545109766881</v>
+        <v>2.588076268000117</v>
       </c>
       <c r="M32">
-        <v>9.273521056857412</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="N32">
-        <v>0.2763965095801505</v>
+        <v>0.4698286063340222</v>
       </c>
       <c r="O32">
-        <v>4.368199984636012</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="P32">
-        <v>136.1465053190025</v>
+        <v>231.4266665249821</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2000,49 +2000,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.573929099788813</v>
+        <v>6.075091652354836</v>
       </c>
       <c r="C33">
-        <v>61.12373009468506</v>
+        <v>103.9002879158833</v>
       </c>
       <c r="D33">
-        <v>0.00676501129954842</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E33">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F33">
-        <v>4.362342365374752</v>
+        <v>7.415264530616456</v>
       </c>
       <c r="G33">
-        <v>20.95663523532689</v>
+        <v>35.6228330850499</v>
       </c>
       <c r="H33">
-        <v>0.5766024550799668</v>
+        <v>0.9801293377058319</v>
       </c>
       <c r="I33">
-        <v>16.25090745372463</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="J33">
-        <v>2.397162453599901</v>
+        <v>4.074781900979436</v>
       </c>
       <c r="K33">
-        <v>12.07299267526684</v>
+        <v>20.52210185836888</v>
       </c>
       <c r="L33">
-        <v>1.296982871282899</v>
+        <v>2.20465756162973</v>
       </c>
       <c r="M33">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="N33">
-        <v>0.07441444488696355</v>
+        <v>0.126492317089929</v>
       </c>
       <c r="O33">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="P33">
-        <v>134.2150976753387</v>
+        <v>228.1435911964844</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2050,49 +2050,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.47039466347181</v>
+        <v>5.899100139306111</v>
       </c>
       <c r="C34">
-        <v>59.35301479389197</v>
+        <v>100.8903631406042</v>
       </c>
       <c r="D34">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E34">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F34">
-        <v>3.592517242073324</v>
+        <v>6.10668843697826</v>
       </c>
       <c r="G34">
-        <v>17.25840548791626</v>
+        <v>29.33645077592344</v>
       </c>
       <c r="H34">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I34">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J34">
-        <v>1.2920875636425</v>
+        <v>2.196336343790335</v>
       </c>
       <c r="K34">
-        <v>6.507428676030354</v>
+        <v>11.06155844848252</v>
       </c>
       <c r="L34">
-        <v>1.127811192419912</v>
+        <v>1.91709353185194</v>
       </c>
       <c r="M34">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="N34">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O34">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P34">
-        <v>123.9063183026293</v>
+        <v>210.6203617858016</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.446996581415294</v>
+        <v>4.159491721863002</v>
       </c>
       <c r="C35">
-        <v>41.85017508989858</v>
+        <v>71.13841440034571</v>
       </c>
       <c r="D35">
-        <v>0.003902891134354856</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E35">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F35">
-        <v>3.143452586814157</v>
+        <v>5.343352382355974</v>
       </c>
       <c r="G35">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="H35">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I35">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J35">
-        <v>0.6630449339744403</v>
+        <v>1.127067334313461</v>
       </c>
       <c r="K35">
-        <v>3.339338399541893</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="L35">
-        <v>0.6766867154519475</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M35">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N35">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O35">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P35">
-        <v>90.76858463867704</v>
+        <v>154.2916648422249</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>2.074670820044537</v>
+        <v>3.526599165322415</v>
       </c>
       <c r="C36">
-        <v>35.48241045050799</v>
+        <v>60.31426184309213</v>
       </c>
       <c r="D36">
-        <v>0.008065975011000039</v>
+        <v>0.01371083087807326</v>
       </c>
       <c r="E36">
-        <v>2.917473892828863</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="F36">
-        <v>2.117019089078924</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G36">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H36">
-        <v>0.5100714025707399</v>
+        <v>0.8670374910474667</v>
       </c>
       <c r="I36">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="J36">
-        <v>0.629042629668059</v>
+        <v>1.069269009476873</v>
       </c>
       <c r="K36">
-        <v>3.168090276488463</v>
+        <v>5.385232402550701</v>
       </c>
       <c r="L36">
-        <v>1.071420632798916</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M36">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="N36">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O36">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P36">
-        <v>79.22864916268782</v>
+        <v>134.6756725487465</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.664515168481029</v>
+        <v>2.829402017475566</v>
       </c>
       <c r="C37">
-        <v>28.46765368198146</v>
+        <v>48.3903290794866</v>
       </c>
       <c r="D37">
-        <v>0.005984433072677447</v>
+        <v>0.01017255194179629</v>
       </c>
       <c r="E37">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="F37">
-        <v>1.667954433819758</v>
+        <v>2.835248202882763</v>
       </c>
       <c r="G37">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H37">
-        <v>0.4324518413099753</v>
+        <v>0.735097003279374</v>
       </c>
       <c r="I37">
-        <v>12.18818059029347</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="J37">
-        <v>0.3570241952170064</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K37">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L37">
-        <v>0.6766867154519475</v>
+        <v>1.150256119111164</v>
       </c>
       <c r="M37">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="N37">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O37">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P37">
-        <v>61.91480644299502</v>
+        <v>105.2449875967687</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,49 +2250,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.262323704326522</v>
+        <v>2.145742678324773</v>
       </c>
       <c r="C38">
-        <v>21.58910578274669</v>
+        <v>36.69792899090249</v>
       </c>
       <c r="D38">
-        <v>0.00676501129954842</v>
+        <v>0.01149940654290015</v>
       </c>
       <c r="E38">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="F38">
-        <v>1.411346059385948</v>
+        <v>2.399056171670029</v>
       </c>
       <c r="G38">
-        <v>6.780087870252815</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="H38">
-        <v>0.1441506137699917</v>
+        <v>0.245032334426458</v>
       </c>
       <c r="I38">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="J38">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K38">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L38">
-        <v>0.4511244769679648</v>
+        <v>0.7668374127407758</v>
       </c>
       <c r="M38">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="N38">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O38">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P38">
-        <v>42.5176452307064</v>
+        <v>72.27300385844585</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2300,49 +2300,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.7904456003432646</v>
+        <v>1.343627513083492</v>
       </c>
       <c r="C39">
-        <v>13.5187302772089</v>
+        <v>22.97961799588058</v>
       </c>
       <c r="D39">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E39">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F39">
-        <v>1.090585591343688</v>
+        <v>1.853816132654114</v>
       </c>
       <c r="G39">
-        <v>5.239158808831721</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="H39">
-        <v>0.09979657876384039</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I39">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J39">
-        <v>0.3740253473701972</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K39">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L39">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M39">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N39">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O39">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P39">
-        <v>32.79020119014868</v>
+        <v>55.73794889805701</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2350,49 +2350,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5933319619705104</v>
+        <v>1.008566747856123</v>
       </c>
       <c r="C40">
-        <v>10.14756076223741</v>
+        <v>17.24918428909928</v>
       </c>
       <c r="D40">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E40">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F40">
-        <v>0.5773688424760699</v>
+        <v>0.9814320702286485</v>
       </c>
       <c r="G40">
-        <v>2.773672310557971</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="H40">
-        <v>0.03326552625461347</v>
+        <v>0.05654592332918261</v>
       </c>
       <c r="I40">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="J40">
-        <v>0.1530103693787171</v>
+        <v>0.2600924617646449</v>
       </c>
       <c r="K40">
-        <v>0.7706165537404369</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="L40">
-        <v>0.5075150365889606</v>
+        <v>0.8626920893333727</v>
       </c>
       <c r="M40">
-        <v>3.091173685619135</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="N40">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O40">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P40">
-        <v>22.0286398198548</v>
+        <v>37.44506456220385</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2400,43 +2400,43 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.3782989019275069</v>
+        <v>0.6430459130626288</v>
       </c>
       <c r="C41">
-        <v>6.469921291359421</v>
+        <v>10.99780206351967</v>
       </c>
       <c r="D41">
-        <v>0.007025204041838744</v>
+        <v>0.01194169140993477</v>
       </c>
       <c r="E41">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="H41">
-        <v>0.01108850875153783</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I41">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J41">
-        <v>0.3230218909106249</v>
+        <v>0.5490840859475837</v>
       </c>
       <c r="K41">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="L41">
-        <v>0.5075150365889606</v>
+        <v>0.8626920893333727</v>
       </c>
       <c r="M41">
-        <v>3.091173685619135</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="N41">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P41">
-        <v>15.44708311453328</v>
+        <v>26.25750065603643</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2444,37 +2444,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2269793411565041</v>
+        <v>0.3858275478375772</v>
       </c>
       <c r="C42">
-        <v>3.881952774815653</v>
+        <v>6.598681238111804</v>
       </c>
       <c r="D42">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E42">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F42">
-        <v>0.5773688424760699</v>
+        <v>0.9814320702286485</v>
       </c>
       <c r="G42">
-        <v>2.773672310557971</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="J42">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K42">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L42">
-        <v>0.8458583943149337</v>
+        <v>1.437820148888954</v>
       </c>
       <c r="M42">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="P42">
-        <v>16.97073038116667</v>
+        <v>28.8474504094338</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2482,43 +2482,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2807376061672551</v>
+        <v>0.4772077565359509</v>
       </c>
       <c r="C43">
-        <v>4.801362642535147</v>
+        <v>8.161526794506704</v>
       </c>
       <c r="D43">
-        <v>0.003902891134354856</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E43">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F43">
-        <v>0.4490646552591654</v>
+        <v>0.7633360546222825</v>
       </c>
       <c r="G43">
-        <v>2.157300685989533</v>
+        <v>3.66705634699043</v>
       </c>
       <c r="H43">
-        <v>0.0443540350061513</v>
+        <v>0.07539456443891014</v>
       </c>
       <c r="I43">
-        <v>1.250069804132663</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="J43">
-        <v>0.238016130144671</v>
+        <v>0.4045882738561143</v>
       </c>
       <c r="K43">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="L43">
-        <v>1.071420632798916</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M43">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="P43">
-        <v>19.43245797451165</v>
+        <v>33.03198242871348</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2526,43 +2526,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4639139165742581</v>
+        <v>0.7885773565452234</v>
       </c>
       <c r="C44">
-        <v>7.934166636246027</v>
+        <v>13.48677832000045</v>
       </c>
       <c r="D44">
-        <v>0.00338250564977421</v>
+        <v>0.005749703271450076</v>
       </c>
       <c r="E44">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="F44">
-        <v>0.8981293105183309</v>
+        <v>1.526672109244565</v>
       </c>
       <c r="G44">
-        <v>4.314601371979065</v>
+        <v>7.334112693980861</v>
       </c>
       <c r="H44">
-        <v>0.02217701750307565</v>
+        <v>0.03769728221945507</v>
       </c>
       <c r="I44">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="J44">
-        <v>0.3910264995233881</v>
+        <v>0.6646807356207592</v>
       </c>
       <c r="K44">
-        <v>1.96935341511445</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="L44">
-        <v>1.296982871282899</v>
+        <v>2.20465756162973</v>
       </c>
       <c r="M44">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="P44">
-        <v>27.04189132569567</v>
+        <v>45.96676757418828</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2570,49 +2570,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.051272737988019</v>
+        <v>1.786990747879305</v>
       </c>
       <c r="C45">
-        <v>17.9795707465146</v>
+        <v>30.56231310283363</v>
       </c>
       <c r="D45">
-        <v>0.003902891134354856</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E45">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F45">
-        <v>2.117019089078924</v>
+        <v>3.598584257505045</v>
       </c>
       <c r="G45">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="H45">
-        <v>0.2772127187884454</v>
+        <v>0.4712160277431883</v>
       </c>
       <c r="I45">
-        <v>7.812936275829149</v>
+        <v>13.28070664649576</v>
       </c>
       <c r="J45">
-        <v>0.9860668248850655</v>
+        <v>1.676151420261045</v>
       </c>
       <c r="K45">
-        <v>4.966195568549482</v>
+        <v>8.44171565805245</v>
       </c>
       <c r="L45">
-        <v>2.030060146355842</v>
+        <v>3.450768357333491</v>
       </c>
       <c r="M45">
-        <v>12.36469474247654</v>
+        <v>21.01794739531169</v>
       </c>
       <c r="N45">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O45">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P45">
-        <v>61.34938278956519</v>
+        <v>104.2838603832494</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2620,49 +2620,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.939279634091534</v>
+        <v>3.296456417489474</v>
       </c>
       <c r="C46">
-        <v>33.16685967254777</v>
+        <v>56.37820636772719</v>
       </c>
       <c r="D46">
-        <v>0.004163083876645182</v>
+        <v>0.00707655787255394</v>
       </c>
       <c r="E46">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="F46">
-        <v>3.784973522898682</v>
+        <v>6.433832460387806</v>
       </c>
       <c r="G46">
-        <v>18.18296292476892</v>
+        <v>30.90804635320506</v>
       </c>
       <c r="H46">
-        <v>0.997965787638404</v>
+        <v>1.696377699875478</v>
       </c>
       <c r="I46">
-        <v>28.12657059298493</v>
+        <v>47.81054392738476</v>
       </c>
       <c r="J46">
-        <v>1.700115215319079</v>
+        <v>2.889916241829388</v>
       </c>
       <c r="K46">
-        <v>8.562406152671519</v>
+        <v>14.55468216905595</v>
       </c>
       <c r="L46">
-        <v>3.32704301763874</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M46">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N46">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O46">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P46">
-        <v>122.2770467161303</v>
+        <v>207.8508680610537</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2670,49 +2670,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.729725234434798</v>
+        <v>4.640083930572967</v>
       </c>
       <c r="C47">
-        <v>46.68558994975668</v>
+        <v>79.35782436360773</v>
       </c>
       <c r="D47">
-        <v>0.002601927422903238</v>
+        <v>0.004422848670346211</v>
       </c>
       <c r="E47">
-        <v>0.9411206105899557</v>
+        <v>1.599750248428815</v>
       </c>
       <c r="F47">
-        <v>3.079300493205706</v>
+        <v>5.23430437455279</v>
       </c>
       <c r="G47">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="H47">
-        <v>0.7872841213591855</v>
+        <v>1.338253518790655</v>
       </c>
       <c r="I47">
-        <v>22.18873902335478</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="J47">
-        <v>1.972133649770131</v>
+        <v>3.352302840522089</v>
       </c>
       <c r="K47">
-        <v>9.932391137098964</v>
+        <v>16.8834313161049</v>
       </c>
       <c r="L47">
-        <v>3.32704301763874</v>
+        <v>5.655425918963222</v>
       </c>
       <c r="M47">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="N47">
-        <v>0.08504507987081551</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O47">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P47">
-        <v>128.132315595827</v>
+        <v>217.8038621188934</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2720,49 +2720,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>3.33699452437106</v>
+        <v>5.672341843647186</v>
       </c>
       <c r="C48">
-        <v>57.07151623325471</v>
+        <v>97.01219083399459</v>
       </c>
       <c r="D48">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E48">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F48">
-        <v>5.003863301459273</v>
+        <v>8.505744608648284</v>
       </c>
       <c r="G48">
-        <v>24.03849335816908</v>
+        <v>40.86148500932193</v>
       </c>
       <c r="H48">
-        <v>0.4213633325584373</v>
+        <v>0.7162483621696465</v>
       </c>
       <c r="I48">
-        <v>11.8756631392603</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="J48">
-        <v>2.363160149293519</v>
+        <v>4.016983576142849</v>
       </c>
       <c r="K48">
-        <v>11.90174455221341</v>
+        <v>20.23100821498777</v>
       </c>
       <c r="L48">
-        <v>4.793197567784625</v>
+        <v>8.147647510370742</v>
       </c>
       <c r="M48">
-        <v>29.19441814195851</v>
+        <v>49.6257091278193</v>
       </c>
       <c r="N48">
-        <v>0.1063063498385194</v>
+        <v>0.1807033101284701</v>
       </c>
       <c r="O48">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="P48">
-        <v>153.8629871509574</v>
+        <v>261.5417717442673</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2770,49 +2770,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.512701127539545</v>
+        <v>4.271178643605461</v>
       </c>
       <c r="C49">
-        <v>42.9738982615557</v>
+        <v>73.04855896927273</v>
       </c>
       <c r="D49">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E49">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F49">
-        <v>4.683102833417013</v>
+        <v>7.960504569632371</v>
       </c>
       <c r="G49">
-        <v>22.49756429674799</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="H49">
-        <v>0.8981692088745635</v>
+        <v>1.52673992988793</v>
       </c>
       <c r="I49">
-        <v>25.31391353368644</v>
+        <v>43.02948953464629</v>
       </c>
       <c r="J49">
-        <v>2.686182040204143</v>
+        <v>4.566067662090433</v>
       </c>
       <c r="K49">
-        <v>13.528601721221</v>
+        <v>22.9963978271084</v>
       </c>
       <c r="L49">
-        <v>7.6691161084554</v>
+        <v>13.03623601659319</v>
       </c>
       <c r="M49">
-        <v>46.71106902713363</v>
+        <v>79.40113460451084</v>
       </c>
       <c r="N49">
-        <v>0.2126126996770387</v>
+        <v>0.3614066202569401</v>
       </c>
       <c r="O49">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="P49">
-        <v>174.3682962460659</v>
+        <v>296.3974246222189</v>
       </c>
     </row>
   </sheetData>
